--- a/SubRES_TMPL/SubRES_IND_CCS.xlsx
+++ b/SubRES_TMPL/SubRES_IND_CCS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C0FA27-E558-453B-BDC6-93F85B9BDF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D2C26F-FE5F-475A-81FB-C2B9DDFAEB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="60" r:id="rId1"/>
@@ -530,9 +530,6 @@
     <t>MEUR/PJ</t>
   </si>
   <si>
-    <t>~FI_T: EUR10</t>
-  </si>
-  <si>
     <t>Exhange rate 2010</t>
   </si>
   <si>
@@ -609,6 +606,9 @@
   </si>
   <si>
     <t>Maurizio Gargiulo (E4SMA, maurizio.gargiulo@e4sma.com)</t>
+  </si>
+  <si>
+    <t>~FI_T: MEUR2010</t>
   </si>
 </sst>
 </file>
@@ -1658,25 +1658,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="22" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="22" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="22" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="22" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" style="22" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" style="22" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="22" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" style="22" customWidth="1"/>
     <col min="13" max="13" width="10" style="22" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="22" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="22" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="22"/>
+    <col min="14" max="14" width="11.3984375" style="22" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" style="22" customWidth="1"/>
+    <col min="16" max="16384" width="8.86328125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1704,7 +1704,7 @@
       <c r="Y1" s="21"/>
       <c r="Z1" s="21"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1732,7 +1732,7 @@
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -1760,7 +1760,7 @@
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -1788,7 +1788,7 @@
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1816,7 +1816,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -1844,7 +1844,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1872,7 +1872,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1900,7 +1900,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="21"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1928,7 +1928,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -1956,7 +1956,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -1984,7 +1984,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -2012,7 +2012,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -2040,7 +2040,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -2068,7 +2068,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -2096,9 +2096,9 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -2126,7 +2126,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -2154,7 +2154,7 @@
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -2182,12 +2182,12 @@
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
@@ -2214,12 +2214,12 @@
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
@@ -2246,12 +2246,12 @@
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
@@ -2278,7 +2278,7 @@
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="28"/>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -2306,12 +2306,12 @@
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
@@ -2338,10 +2338,10 @@
       <c r="Y23" s="21"/>
       <c r="Z23" s="21"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="28"/>
       <c r="B24" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
@@ -2368,10 +2368,10 @@
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="28"/>
       <c r="B25" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
@@ -2398,12 +2398,12 @@
       <c r="Y25" s="21"/>
       <c r="Z25" s="21"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
@@ -2430,7 +2430,7 @@
       <c r="Y26" s="21"/>
       <c r="Z26" s="21"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="28"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -2458,7 +2458,7 @@
       <c r="Y27" s="21"/>
       <c r="Z27" s="21"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="28"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -2486,9 +2486,9 @@
       <c r="Y28" s="21"/>
       <c r="Z28" s="21"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="32">
         <v>1</v>
@@ -2518,12 +2518,12 @@
       <c r="Y29" s="21"/>
       <c r="Z29" s="21"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>67</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>68</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -2550,12 +2550,12 @@
       <c r="Y30" s="21"/>
       <c r="Z30" s="21"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="36" t="s">
         <v>69</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>70</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
@@ -2582,10 +2582,10 @@
       <c r="Y31" s="21"/>
       <c r="Z31" s="21"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="34"/>
       <c r="B32" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
@@ -2612,7 +2612,7 @@
       <c r="Y32" s="21"/>
       <c r="Z32" s="21"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -2640,7 +2640,7 @@
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -2668,7 +2668,7 @@
       <c r="Y34" s="21"/>
       <c r="Z34" s="21"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -2696,7 +2696,7 @@
       <c r="Y35" s="21"/>
       <c r="Z35" s="21"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -2724,7 +2724,7 @@
       <c r="Y36" s="21"/>
       <c r="Z36" s="21"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -2752,7 +2752,7 @@
       <c r="Y37" s="21"/>
       <c r="Z37" s="21"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -2780,7 +2780,7 @@
       <c r="Y38" s="21"/>
       <c r="Z38" s="21"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -2808,7 +2808,7 @@
       <c r="Y39" s="21"/>
       <c r="Z39" s="21"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -2836,7 +2836,7 @@
       <c r="Y40" s="21"/>
       <c r="Z40" s="21"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -2864,7 +2864,7 @@
       <c r="Y41" s="21"/>
       <c r="Z41" s="21"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -2892,7 +2892,7 @@
       <c r="Y42" s="21"/>
       <c r="Z42" s="21"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2920,7 +2920,7 @@
       <c r="Y43" s="21"/>
       <c r="Z43" s="21"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -2948,7 +2948,7 @@
       <c r="Y44" s="21"/>
       <c r="Z44" s="21"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -2976,7 +2976,7 @@
       <c r="Y45" s="21"/>
       <c r="Z45" s="21"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -3004,7 +3004,7 @@
       <c r="Y46" s="21"/>
       <c r="Z46" s="21"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -3032,7 +3032,7 @@
       <c r="Y47" s="21"/>
       <c r="Z47" s="21"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -3060,7 +3060,7 @@
       <c r="Y48" s="21"/>
       <c r="Z48" s="21"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -3088,7 +3088,7 @@
       <c r="Y49" s="21"/>
       <c r="Z49" s="21"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -3116,7 +3116,7 @@
       <c r="Y50" s="21"/>
       <c r="Z50" s="21"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3144,7 +3144,7 @@
       <c r="Y51" s="21"/>
       <c r="Z51" s="21"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -3172,7 +3172,7 @@
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -3200,7 +3200,7 @@
       <c r="Y53" s="21"/>
       <c r="Z53" s="21"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -3228,7 +3228,7 @@
       <c r="Y54" s="21"/>
       <c r="Z54" s="21"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -3256,7 +3256,7 @@
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -3284,7 +3284,7 @@
       <c r="Y56" s="21"/>
       <c r="Z56" s="21"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -3312,7 +3312,7 @@
       <c r="Y57" s="21"/>
       <c r="Z57" s="21"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -3340,7 +3340,7 @@
       <c r="Y58" s="21"/>
       <c r="Z58" s="21"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -3368,7 +3368,7 @@
       <c r="Y59" s="21"/>
       <c r="Z59" s="21"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -3396,7 +3396,7 @@
       <c r="Y60" s="21"/>
       <c r="Z60" s="21"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -3424,7 +3424,7 @@
       <c r="Y61" s="21"/>
       <c r="Z61" s="21"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -3452,7 +3452,7 @@
       <c r="Y62" s="21"/>
       <c r="Z62" s="21"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -3480,7 +3480,7 @@
       <c r="Y63" s="21"/>
       <c r="Z63" s="21"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -3508,7 +3508,7 @@
       <c r="Y64" s="21"/>
       <c r="Z64" s="21"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -3536,7 +3536,7 @@
       <c r="Y65" s="21"/>
       <c r="Z65" s="21"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -3564,7 +3564,7 @@
       <c r="Y66" s="21"/>
       <c r="Z66" s="21"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -3592,7 +3592,7 @@
       <c r="Y67" s="21"/>
       <c r="Z67" s="21"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -3620,7 +3620,7 @@
       <c r="Y68" s="21"/>
       <c r="Z68" s="21"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -3648,7 +3648,7 @@
       <c r="Y69" s="21"/>
       <c r="Z69" s="21"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -3676,7 +3676,7 @@
       <c r="Y70" s="21"/>
       <c r="Z70" s="21"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -3704,7 +3704,7 @@
       <c r="Y71" s="21"/>
       <c r="Z71" s="21"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -3732,7 +3732,7 @@
       <c r="Y72" s="21"/>
       <c r="Z72" s="21"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -3760,7 +3760,7 @@
       <c r="Y73" s="21"/>
       <c r="Z73" s="21"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -3788,7 +3788,7 @@
       <c r="Y74" s="21"/>
       <c r="Z74" s="21"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -3816,7 +3816,7 @@
       <c r="Y75" s="21"/>
       <c r="Z75" s="21"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -3844,7 +3844,7 @@
       <c r="Y76" s="21"/>
       <c r="Z76" s="21"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -3872,7 +3872,7 @@
       <c r="Y77" s="21"/>
       <c r="Z77" s="21"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -3900,7 +3900,7 @@
       <c r="Y78" s="21"/>
       <c r="Z78" s="21"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -3928,7 +3928,7 @@
       <c r="Y79" s="21"/>
       <c r="Z79" s="21"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -3956,7 +3956,7 @@
       <c r="Y80" s="21"/>
       <c r="Z80" s="21"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -3984,7 +3984,7 @@
       <c r="Y81" s="21"/>
       <c r="Z81" s="21"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -4012,7 +4012,7 @@
       <c r="Y82" s="21"/>
       <c r="Z82" s="21"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -4040,7 +4040,7 @@
       <c r="Y83" s="21"/>
       <c r="Z83" s="21"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -4068,7 +4068,7 @@
       <c r="Y84" s="21"/>
       <c r="Z84" s="21"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -4096,7 +4096,7 @@
       <c r="Y85" s="21"/>
       <c r="Z85" s="21"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -4124,7 +4124,7 @@
       <c r="Y86" s="21"/>
       <c r="Z86" s="21"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -4152,7 +4152,7 @@
       <c r="Y87" s="21"/>
       <c r="Z87" s="21"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -4180,7 +4180,7 @@
       <c r="Y88" s="21"/>
       <c r="Z88" s="21"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -4208,7 +4208,7 @@
       <c r="Y89" s="21"/>
       <c r="Z89" s="21"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -4236,7 +4236,7 @@
       <c r="Y90" s="21"/>
       <c r="Z90" s="21"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -4264,7 +4264,7 @@
       <c r="Y91" s="21"/>
       <c r="Z91" s="21"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -4292,7 +4292,7 @@
       <c r="Y92" s="21"/>
       <c r="Z92" s="21"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -4320,7 +4320,7 @@
       <c r="Y93" s="21"/>
       <c r="Z93" s="21"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -4348,7 +4348,7 @@
       <c r="Y94" s="21"/>
       <c r="Z94" s="21"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -4376,7 +4376,7 @@
       <c r="Y95" s="21"/>
       <c r="Z95" s="21"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -4404,7 +4404,7 @@
       <c r="Y96" s="21"/>
       <c r="Z96" s="21"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -4432,7 +4432,7 @@
       <c r="Y97" s="21"/>
       <c r="Z97" s="21"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -4460,7 +4460,7 @@
       <c r="Y98" s="21"/>
       <c r="Z98" s="21"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -4515,37 +4515,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.73046875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.42578125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="10" width="14.86328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.265625" style="3" customWidth="1"/>
+    <col min="12" max="13" width="9.1328125" style="3"/>
+    <col min="14" max="14" width="15.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="67.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.3984375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="10.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.3984375" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -4565,7 +4565,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4582,13 +4582,13 @@
         <v>22</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>23</v>
@@ -4597,7 +4597,7 @@
         <v>24</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>6</v>
@@ -4624,9 +4624,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>10</v>
@@ -4644,7 +4644,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
@@ -4681,7 +4681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
@@ -4712,7 +4712,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="str">
         <f>N7</f>
         <v>I-DMD-ONM-N1</v>
@@ -4768,7 +4768,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
@@ -4875,20 +4875,20 @@
       </c>
       <c r="K16" s="17"/>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I22" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I23" s="11" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I23" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="J23" s="12">
         <v>0.86080000000000001</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRES_IND_CCS.xlsx
+++ b/SubRES_TMPL/SubRES_IND_CCS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5303E9EA-326B-48A9-8EFE-9B72F43101B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44F1380-F855-4E3E-BF9B-A3C20294BB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="75" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="60" r:id="rId1"/>
@@ -440,7 +440,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="271">
   <si>
     <t>Document type:</t>
   </si>
@@ -1250,6 +1250,9 @@
   </si>
   <si>
     <t>CCS capture rate</t>
+  </si>
+  <si>
+    <t>START</t>
   </si>
 </sst>
 </file>
@@ -10268,18 +10271,18 @@
       <selection activeCell="B26" sqref="B26:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="22" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="22" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="22" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="22" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" style="22" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="22" customWidth="1"/>
+    <col min="8" max="10" width="8.1796875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="22" customWidth="1"/>
     <col min="13" max="13" width="10" style="22" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="22" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="22" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="22"/>
+    <col min="14" max="14" width="11.453125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="22" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -13121,29 +13124,29 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.42578125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="10" width="14.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" style="3" customWidth="1"/>
+    <col min="12" max="13" width="9.1796875" style="3"/>
+    <col min="14" max="14" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="67.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.453125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.453125" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:20">
@@ -13173,7 +13176,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" ht="30.75" thickBot="1">
+    <row r="4" spans="1:20" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -13232,7 +13235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="51">
+    <row r="5" spans="1:20" ht="52">
       <c r="A5" s="15" t="s">
         <v>53</v>
       </c>
@@ -13512,7 +13515,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="30.75" thickBot="1">
+    <row r="26" spans="1:14" ht="29.5" thickBot="1">
       <c r="A26" s="61" t="s">
         <v>3</v>
       </c>
@@ -13550,7 +13553,7 @@
         <v>57</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>55</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -13735,7 +13738,7 @@
       <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
     <row r="2" spans="2:56">
       <c r="G2">
@@ -13939,7 +13942,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="2:56" ht="15">
+    <row r="6" spans="2:56" ht="14.5">
       <c r="B6" s="42" t="s">
         <v>191</v>
       </c>
@@ -14105,7 +14108,7 @@
         <v>Bio fuel</v>
       </c>
     </row>
-    <row r="7" spans="2:56" ht="15">
+    <row r="7" spans="2:56" ht="14.5">
       <c r="B7" s="42" t="s">
         <v>191</v>
       </c>
@@ -14230,7 +14233,7 @@
         <v>Biomass</v>
       </c>
     </row>
-    <row r="8" spans="2:56" ht="15">
+    <row r="8" spans="2:56" ht="14.5">
       <c r="B8" s="42" t="s">
         <v>197</v>
       </c>
@@ -14355,7 +14358,7 @@
         <v>Biomethane</v>
       </c>
     </row>
-    <row r="9" spans="2:56" ht="15">
+    <row r="9" spans="2:56" ht="14.5">
       <c r="B9" s="42" t="s">
         <v>197</v>
       </c>
@@ -14480,7 +14483,7 @@
         <v>Electric</v>
       </c>
     </row>
-    <row r="10" spans="2:56" ht="15">
+    <row r="10" spans="2:56" ht="14.5">
       <c r="B10" s="42" t="s">
         <v>197</v>
       </c>
@@ -14593,7 +14596,7 @@
         <v>Gas</v>
       </c>
     </row>
-    <row r="11" spans="2:56" ht="15">
+    <row r="11" spans="2:56" ht="14.5">
       <c r="B11" s="42" t="s">
         <v>197</v>
       </c>
@@ -14652,7 +14655,7 @@
         <v>Hydrogen</v>
       </c>
     </row>
-    <row r="12" spans="2:56" ht="15">
+    <row r="12" spans="2:56" ht="14.5">
       <c r="B12" s="42" t="s">
         <v>201</v>
       </c>
@@ -14690,7 +14693,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="2:56" ht="15">
+    <row r="13" spans="2:56" ht="14.5">
       <c r="B13" s="42" t="s">
         <v>201</v>
       </c>
@@ -14728,7 +14731,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="2:56" ht="15">
+    <row r="14" spans="2:56" ht="14.5">
       <c r="B14" s="42" t="s">
         <v>201</v>
       </c>
@@ -14766,7 +14769,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="2:56" ht="15">
+    <row r="15" spans="2:56" ht="14.5">
       <c r="B15" s="42" t="s">
         <v>201</v>
       </c>
@@ -14804,7 +14807,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="2:56" ht="15">
+    <row r="16" spans="2:56" ht="14.5">
       <c r="B16" s="42" t="s">
         <v>203</v>
       </c>
@@ -14842,7 +14845,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="15">
+    <row r="17" spans="2:23" ht="14.5">
       <c r="B17" s="42" t="s">
         <v>203</v>
       </c>
@@ -14880,7 +14883,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="15">
+    <row r="18" spans="2:23" ht="14.5">
       <c r="B18" s="42" t="s">
         <v>203</v>
       </c>
@@ -14918,7 +14921,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="15">
+    <row r="19" spans="2:23" ht="14.5">
       <c r="B19" s="42" t="s">
         <v>205</v>
       </c>
@@ -14956,7 +14959,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="15">
+    <row r="20" spans="2:23" ht="14.5">
       <c r="B20" s="42" t="s">
         <v>205</v>
       </c>
@@ -14994,7 +14997,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="15">
+    <row r="21" spans="2:23" ht="14.5">
       <c r="B21" s="42" t="s">
         <v>205</v>
       </c>
@@ -15032,7 +15035,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="15">
+    <row r="22" spans="2:23" ht="14.5">
       <c r="B22" s="42" t="s">
         <v>209</v>
       </c>
@@ -15069,7 +15072,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="15">
+    <row r="23" spans="2:23" ht="14.5">
       <c r="B23" s="42" t="s">
         <v>209</v>
       </c>
@@ -15106,7 +15109,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="15">
+    <row r="24" spans="2:23" ht="14.5">
       <c r="B24" s="42" t="s">
         <v>209</v>
       </c>
@@ -15143,7 +15146,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="15">
+    <row r="25" spans="2:23" ht="14.5">
       <c r="B25" s="42" t="s">
         <v>209</v>
       </c>
@@ -15180,7 +15183,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="15">
+    <row r="26" spans="2:23" ht="14.5">
       <c r="B26" s="42" t="s">
         <v>209</v>
       </c>
@@ -15217,7 +15220,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="15">
+    <row r="27" spans="2:23" ht="14.5">
       <c r="B27" s="42" t="s">
         <v>210</v>
       </c>
@@ -15254,7 +15257,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="15">
+    <row r="28" spans="2:23" ht="14.5">
       <c r="B28" s="42" t="s">
         <v>210</v>
       </c>
@@ -15291,7 +15294,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="2:23" ht="15">
+    <row r="29" spans="2:23" ht="14.5">
       <c r="B29" s="42" t="s">
         <v>210</v>
       </c>
@@ -15328,7 +15331,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="15">
+    <row r="30" spans="2:23" ht="14.5">
       <c r="B30" s="42" t="s">
         <v>211</v>
       </c>
@@ -15365,7 +15368,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="15">
+    <row r="31" spans="2:23" ht="14.5">
       <c r="B31" s="42" t="s">
         <v>211</v>
       </c>
@@ -15402,7 +15405,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="15">
+    <row r="32" spans="2:23" ht="14.5">
       <c r="B32" s="42" t="s">
         <v>211</v>
       </c>
@@ -15439,7 +15442,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="2:23" ht="15">
+    <row r="33" spans="2:23" ht="14.5">
       <c r="B33" s="42" t="s">
         <v>212</v>
       </c>
@@ -15476,7 +15479,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="15">
+    <row r="34" spans="2:23" ht="14.5">
       <c r="B34" s="42" t="s">
         <v>212</v>
       </c>
@@ -15513,7 +15516,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="2:23" ht="15">
+    <row r="35" spans="2:23" ht="14.5">
       <c r="H35" s="40" t="s">
         <v>190</v>
       </c>
@@ -15544,7 +15547,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="15">
+    <row r="36" spans="2:23" ht="14.5">
       <c r="H36" s="40" t="s">
         <v>190</v>
       </c>
@@ -15575,7 +15578,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="15">
+    <row r="37" spans="2:23" ht="14.5">
       <c r="H37" s="40" t="s">
         <v>190</v>
       </c>
@@ -15606,7 +15609,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="15">
+    <row r="38" spans="2:23" ht="14.5">
       <c r="H38" s="40" t="s">
         <v>190</v>
       </c>
@@ -15637,7 +15640,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="2:23" ht="15">
+    <row r="39" spans="2:23" ht="14.5">
       <c r="H39" s="40" t="s">
         <v>190</v>
       </c>
@@ -15668,7 +15671,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="15">
+    <row r="40" spans="2:23" ht="14.5">
       <c r="H40" s="40" t="s">
         <v>190</v>
       </c>
@@ -15699,7 +15702,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="2:23" ht="15">
+    <row r="41" spans="2:23" ht="14.5">
       <c r="H41" s="40" t="s">
         <v>190</v>
       </c>
@@ -15730,7 +15733,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="15">
+    <row r="42" spans="2:23" ht="14.5">
       <c r="H42" s="40" t="s">
         <v>190</v>
       </c>
@@ -15761,7 +15764,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="2:23" ht="15">
+    <row r="43" spans="2:23" ht="14.5">
       <c r="H43" s="40" t="s">
         <v>190</v>
       </c>
@@ -15792,7 +15795,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="15">
+    <row r="44" spans="2:23" ht="14.5">
       <c r="H44" s="40" t="s">
         <v>190</v>
       </c>
@@ -15823,7 +15826,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="15">
+    <row r="45" spans="2:23" ht="14.5">
       <c r="H45" s="40" t="s">
         <v>190</v>
       </c>
@@ -15854,7 +15857,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="15">
+    <row r="46" spans="2:23" ht="14.5">
       <c r="H46" s="40" t="s">
         <v>190</v>
       </c>
@@ -15885,7 +15888,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="2:23" ht="15">
+    <row r="47" spans="2:23" ht="14.5">
       <c r="H47" s="40" t="s">
         <v>190</v>
       </c>
@@ -15916,7 +15919,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="15">
+    <row r="48" spans="2:23" ht="14.5">
       <c r="H48" s="40" t="s">
         <v>190</v>
       </c>
@@ -15947,7 +15950,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="8:23" ht="15">
+    <row r="49" spans="8:23" ht="14.5">
       <c r="H49" s="40" t="s">
         <v>190</v>
       </c>
@@ -15978,7 +15981,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="8:23" ht="15">
+    <row r="50" spans="8:23" ht="14.5">
       <c r="H50" s="40" t="s">
         <v>190</v>
       </c>
@@ -16009,7 +16012,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="8:23" ht="15">
+    <row r="51" spans="8:23" ht="14.5">
       <c r="H51" s="40" t="s">
         <v>190</v>
       </c>
@@ -16040,7 +16043,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="8:23" ht="15">
+    <row r="52" spans="8:23" ht="14.5">
       <c r="H52" s="40" t="s">
         <v>190</v>
       </c>
@@ -16071,7 +16074,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="8:23" ht="15">
+    <row r="53" spans="8:23" ht="14.5">
       <c r="H53" s="40" t="s">
         <v>190</v>
       </c>
@@ -16102,7 +16105,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="8:23" ht="15">
+    <row r="54" spans="8:23" ht="14.5">
       <c r="H54" s="40" t="s">
         <v>190</v>
       </c>
@@ -16133,7 +16136,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="8:23" ht="15">
+    <row r="55" spans="8:23" ht="14.5">
       <c r="H55" s="40" t="s">
         <v>190</v>
       </c>
@@ -16164,7 +16167,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="8:23" ht="15">
+    <row r="56" spans="8:23" ht="14.5">
       <c r="H56" s="40" t="s">
         <v>190</v>
       </c>
@@ -16195,7 +16198,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="8:23" ht="15">
+    <row r="57" spans="8:23" ht="14.5">
       <c r="H57" s="40" t="s">
         <v>190</v>
       </c>
@@ -16226,7 +16229,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="8:23" ht="15">
+    <row r="58" spans="8:23" ht="14.5">
       <c r="H58" s="40" t="s">
         <v>190</v>
       </c>
@@ -16257,7 +16260,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="8:23" ht="15">
+    <row r="59" spans="8:23" ht="14.5">
       <c r="H59" s="40" t="s">
         <v>190</v>
       </c>
@@ -16288,7 +16291,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="8:23" ht="15">
+    <row r="60" spans="8:23" ht="14.5">
       <c r="H60" s="40" t="s">
         <v>190</v>
       </c>
@@ -16319,7 +16322,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="8:23" ht="15">
+    <row r="61" spans="8:23" ht="14.5">
       <c r="H61" s="40" t="s">
         <v>190</v>
       </c>
@@ -16350,7 +16353,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="8:23" ht="15">
+    <row r="62" spans="8:23" ht="14.5">
       <c r="H62" s="40" t="s">
         <v>190</v>
       </c>
@@ -16381,7 +16384,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="8:23" ht="15">
+    <row r="63" spans="8:23" ht="14.5">
       <c r="H63" s="40" t="s">
         <v>190</v>
       </c>
@@ -16406,7 +16409,7 @@
       </c>
       <c r="Q63" s="41"/>
     </row>
-    <row r="64" spans="8:23" ht="15">
+    <row r="64" spans="8:23" ht="14.5">
       <c r="H64" s="40" t="s">
         <v>190</v>
       </c>
@@ -16431,7 +16434,7 @@
       </c>
       <c r="Q64" s="41"/>
     </row>
-    <row r="65" spans="8:17" ht="15">
+    <row r="65" spans="8:17" ht="14.5">
       <c r="H65" s="40" t="s">
         <v>190</v>
       </c>
@@ -16458,7 +16461,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="8:17" ht="15">
+    <row r="66" spans="8:17" ht="14.5">
       <c r="H66" s="40" t="s">
         <v>190</v>
       </c>
@@ -16485,7 +16488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="8:17" ht="15">
+    <row r="67" spans="8:17" ht="14.5">
       <c r="H67" s="40" t="s">
         <v>190</v>
       </c>
@@ -16512,7 +16515,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="8:17" ht="15">
+    <row r="68" spans="8:17" ht="14.5">
       <c r="H68" s="40" t="s">
         <v>190</v>
       </c>
@@ -16539,7 +16542,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="8:17" ht="15">
+    <row r="69" spans="8:17" ht="14.5">
       <c r="H69" s="40" t="s">
         <v>190</v>
       </c>
@@ -16566,7 +16569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="8:17" ht="15">
+    <row r="70" spans="8:17" ht="14.5">
       <c r="H70" s="40" t="s">
         <v>190</v>
       </c>
@@ -16593,7 +16596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="8:17" ht="15">
+    <row r="71" spans="8:17" ht="14.5">
       <c r="H71" s="40" t="s">
         <v>190</v>
       </c>
@@ -16618,7 +16621,7 @@
       </c>
       <c r="Q71" s="41"/>
     </row>
-    <row r="72" spans="8:17" ht="15">
+    <row r="72" spans="8:17" ht="14.5">
       <c r="H72" s="40" t="s">
         <v>190</v>
       </c>
@@ -16643,7 +16646,7 @@
       </c>
       <c r="Q72" s="41"/>
     </row>
-    <row r="73" spans="8:17" ht="15">
+    <row r="73" spans="8:17" ht="14.5">
       <c r="H73" s="40" t="s">
         <v>190</v>
       </c>
@@ -16667,7 +16670,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="74" spans="8:17" ht="15">
+    <row r="74" spans="8:17" ht="14.5">
       <c r="H74" s="40" t="s">
         <v>190</v>
       </c>
@@ -16691,7 +16694,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="8:17" ht="15">
+    <row r="75" spans="8:17" ht="14.5">
       <c r="H75" s="40" t="s">
         <v>190</v>
       </c>
@@ -16715,7 +16718,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="8:17" ht="15">
+    <row r="76" spans="8:17" ht="14.5">
       <c r="H76" s="40" t="s">
         <v>190</v>
       </c>
@@ -16739,7 +16742,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="8:17" ht="15">
+    <row r="77" spans="8:17" ht="14.5">
       <c r="H77" s="40" t="s">
         <v>190</v>
       </c>
@@ -16757,7 +16760,7 @@
       </c>
       <c r="M77" s="40"/>
     </row>
-    <row r="78" spans="8:17" ht="15">
+    <row r="78" spans="8:17" ht="14.5">
       <c r="H78" s="40" t="s">
         <v>190</v>
       </c>
@@ -16775,7 +16778,7 @@
       </c>
       <c r="M78" s="40"/>
     </row>
-    <row r="79" spans="8:17" ht="15">
+    <row r="79" spans="8:17" ht="14.5">
       <c r="H79" s="40" t="s">
         <v>190</v>
       </c>
@@ -16793,7 +16796,7 @@
       </c>
       <c r="M79" s="40"/>
     </row>
-    <row r="80" spans="8:17" ht="15">
+    <row r="80" spans="8:17" ht="14.5">
       <c r="H80" s="40" t="s">
         <v>190</v>
       </c>
@@ -16811,7 +16814,7 @@
       </c>
       <c r="M80" s="40"/>
     </row>
-    <row r="81" spans="8:13" ht="15">
+    <row r="81" spans="8:13" ht="14.5">
       <c r="H81" s="40" t="s">
         <v>190</v>
       </c>
@@ -16829,7 +16832,7 @@
       </c>
       <c r="M81" s="40"/>
     </row>
-    <row r="82" spans="8:13" ht="15">
+    <row r="82" spans="8:13" ht="14.5">
       <c r="H82" s="40" t="s">
         <v>190</v>
       </c>
@@ -16847,7 +16850,7 @@
       </c>
       <c r="M82" s="40"/>
     </row>
-    <row r="83" spans="8:13" ht="15">
+    <row r="83" spans="8:13" ht="14.5">
       <c r="H83" s="40" t="s">
         <v>190</v>
       </c>
@@ -16865,7 +16868,7 @@
       </c>
       <c r="M83" s="40"/>
     </row>
-    <row r="84" spans="8:13" ht="15">
+    <row r="84" spans="8:13" ht="14.5">
       <c r="H84" s="40" t="s">
         <v>190</v>
       </c>
@@ -16883,7 +16886,7 @@
       </c>
       <c r="M84" s="40"/>
     </row>
-    <row r="85" spans="8:13" ht="15">
+    <row r="85" spans="8:13" ht="14.5">
       <c r="H85" s="40" t="s">
         <v>190</v>
       </c>
@@ -16901,7 +16904,7 @@
       </c>
       <c r="M85" s="40"/>
     </row>
-    <row r="86" spans="8:13" ht="15">
+    <row r="86" spans="8:13" ht="14.5">
       <c r="H86" s="40" t="s">
         <v>190</v>
       </c>
@@ -16919,7 +16922,7 @@
       </c>
       <c r="M86" s="40"/>
     </row>
-    <row r="87" spans="8:13" ht="15">
+    <row r="87" spans="8:13" ht="14.5">
       <c r="H87" s="40" t="s">
         <v>190</v>
       </c>
@@ -16937,7 +16940,7 @@
       </c>
       <c r="M87" s="40"/>
     </row>
-    <row r="88" spans="8:13" ht="15">
+    <row r="88" spans="8:13" ht="14.5">
       <c r="H88" s="40" t="s">
         <v>190</v>
       </c>
@@ -16955,7 +16958,7 @@
       </c>
       <c r="M88" s="40"/>
     </row>
-    <row r="89" spans="8:13" ht="15">
+    <row r="89" spans="8:13" ht="14.5">
       <c r="H89" s="40" t="s">
         <v>190</v>
       </c>
@@ -16973,7 +16976,7 @@
       </c>
       <c r="M89" s="40"/>
     </row>
-    <row r="90" spans="8:13" ht="15">
+    <row r="90" spans="8:13" ht="14.5">
       <c r="H90" s="40" t="s">
         <v>190</v>
       </c>
@@ -16991,7 +16994,7 @@
       </c>
       <c r="M90" s="40"/>
     </row>
-    <row r="91" spans="8:13" ht="15">
+    <row r="91" spans="8:13" ht="14.5">
       <c r="H91" s="40" t="s">
         <v>190</v>
       </c>
@@ -17009,7 +17012,7 @@
       </c>
       <c r="M91" s="40"/>
     </row>
-    <row r="92" spans="8:13" ht="15">
+    <row r="92" spans="8:13" ht="14.5">
       <c r="H92" s="40" t="s">
         <v>190</v>
       </c>
@@ -17027,7 +17030,7 @@
       </c>
       <c r="M92" s="40"/>
     </row>
-    <row r="93" spans="8:13" ht="15">
+    <row r="93" spans="8:13" ht="14.5">
       <c r="H93" s="40" t="s">
         <v>190</v>
       </c>
@@ -17045,7 +17048,7 @@
       </c>
       <c r="M93" s="40"/>
     </row>
-    <row r="94" spans="8:13" ht="15">
+    <row r="94" spans="8:13" ht="14.5">
       <c r="H94" s="40" t="s">
         <v>190</v>
       </c>
@@ -17063,7 +17066,7 @@
       </c>
       <c r="M94" s="40"/>
     </row>
-    <row r="95" spans="8:13" ht="15">
+    <row r="95" spans="8:13" ht="14.5">
       <c r="H95" s="40" t="s">
         <v>190</v>
       </c>
@@ -17081,7 +17084,7 @@
       </c>
       <c r="M95" s="40"/>
     </row>
-    <row r="96" spans="8:13" ht="15">
+    <row r="96" spans="8:13" ht="14.5">
       <c r="H96" s="40" t="s">
         <v>190</v>
       </c>
@@ -17099,7 +17102,7 @@
       </c>
       <c r="M96" s="40"/>
     </row>
-    <row r="97" spans="8:13" ht="15">
+    <row r="97" spans="8:13" ht="14.5">
       <c r="H97" s="40" t="s">
         <v>190</v>
       </c>
@@ -17117,7 +17120,7 @@
       </c>
       <c r="M97" s="40"/>
     </row>
-    <row r="98" spans="8:13" ht="15">
+    <row r="98" spans="8:13" ht="14.5">
       <c r="H98" s="40" t="s">
         <v>190</v>
       </c>
@@ -17135,7 +17138,7 @@
       </c>
       <c r="M98" s="40"/>
     </row>
-    <row r="99" spans="8:13" ht="15">
+    <row r="99" spans="8:13" ht="14.5">
       <c r="H99" s="40" t="s">
         <v>190</v>
       </c>
@@ -17153,7 +17156,7 @@
       </c>
       <c r="M99" s="40"/>
     </row>
-    <row r="100" spans="8:13" ht="15">
+    <row r="100" spans="8:13" ht="14.5">
       <c r="H100" s="40" t="s">
         <v>190</v>
       </c>
@@ -17171,7 +17174,7 @@
       </c>
       <c r="M100" s="40"/>
     </row>
-    <row r="101" spans="8:13" ht="15">
+    <row r="101" spans="8:13" ht="14.5">
       <c r="H101" s="40" t="s">
         <v>190</v>
       </c>
@@ -17189,7 +17192,7 @@
       </c>
       <c r="M101" s="40"/>
     </row>
-    <row r="102" spans="8:13" ht="15">
+    <row r="102" spans="8:13" ht="14.5">
       <c r="H102" s="40" t="s">
         <v>190</v>
       </c>
@@ -17207,7 +17210,7 @@
       </c>
       <c r="M102" s="40"/>
     </row>
-    <row r="103" spans="8:13" ht="15">
+    <row r="103" spans="8:13" ht="14.5">
       <c r="H103" s="40" t="s">
         <v>190</v>
       </c>
@@ -17225,7 +17228,7 @@
       </c>
       <c r="M103" s="40"/>
     </row>
-    <row r="104" spans="8:13" ht="15">
+    <row r="104" spans="8:13" ht="14.5">
       <c r="H104" s="40" t="s">
         <v>190</v>
       </c>
@@ -17243,7 +17246,7 @@
       </c>
       <c r="M104" s="40"/>
     </row>
-    <row r="105" spans="8:13" ht="15">
+    <row r="105" spans="8:13" ht="14.5">
       <c r="H105" s="40" t="s">
         <v>190</v>
       </c>
@@ -17261,7 +17264,7 @@
       </c>
       <c r="M105" s="40"/>
     </row>
-    <row r="106" spans="8:13" ht="15">
+    <row r="106" spans="8:13" ht="14.5">
       <c r="H106" s="40" t="s">
         <v>190</v>
       </c>
@@ -17279,7 +17282,7 @@
       </c>
       <c r="M106" s="40"/>
     </row>
-    <row r="107" spans="8:13" ht="15">
+    <row r="107" spans="8:13" ht="14.5">
       <c r="H107" s="40" t="s">
         <v>190</v>
       </c>
@@ -17297,7 +17300,7 @@
       </c>
       <c r="M107" s="40"/>
     </row>
-    <row r="108" spans="8:13" ht="15">
+    <row r="108" spans="8:13" ht="14.5">
       <c r="H108" s="40" t="s">
         <v>190</v>
       </c>
@@ -17315,7 +17318,7 @@
       </c>
       <c r="M108" s="40"/>
     </row>
-    <row r="109" spans="8:13" ht="15">
+    <row r="109" spans="8:13" ht="14.5">
       <c r="H109" s="40" t="s">
         <v>190</v>
       </c>
@@ -17346,17 +17349,17 @@
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="16" max="16" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="13" max="13" width="22.453125" customWidth="1"/>
+    <col min="14" max="14" width="17.81640625" customWidth="1"/>
+    <col min="16" max="16" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:35" ht="15">
+    <row r="4" spans="3:35" ht="14.5">
       <c r="M4" s="49"/>
       <c r="N4" s="49"/>
       <c r="O4" s="49"/>
@@ -17380,7 +17383,7 @@
       <c r="AH4" s="53"/>
       <c r="AI4" s="53"/>
     </row>
-    <row r="5" spans="3:35" ht="15.75" thickBot="1">
+    <row r="5" spans="3:35" ht="15" thickBot="1">
       <c r="M5" s="47" t="s">
         <v>3</v>
       </c>
@@ -17442,7 +17445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:35">
+    <row r="6" spans="3:35" ht="13">
       <c r="G6" t="s">
         <v>187</v>
       </c>
@@ -17500,7 +17503,7 @@
       <c r="AH6" s="56"/>
       <c r="AI6" s="56"/>
     </row>
-    <row r="7" spans="3:35" ht="15">
+    <row r="7" spans="3:35" ht="14.5">
       <c r="C7" t="str">
         <f>+IND!$AB$4</f>
         <v>Cement</v>
@@ -17596,7 +17599,7 @@
       <c r="AH7" s="60"/>
       <c r="AI7" s="59"/>
     </row>
-    <row r="8" spans="3:35" ht="15">
+    <row r="8" spans="3:35" ht="14.5">
       <c r="C8" t="str">
         <f>+IND!$AB$4</f>
         <v>Cement</v>
@@ -17692,7 +17695,7 @@
       <c r="AH8" s="60"/>
       <c r="AI8" s="59"/>
     </row>
-    <row r="9" spans="3:35" ht="15">
+    <row r="9" spans="3:35" ht="14.5">
       <c r="C9" t="str">
         <f>+IND!$AB$4</f>
         <v>Cement</v>
@@ -17788,7 +17791,7 @@
       <c r="AH9" s="60"/>
       <c r="AI9" s="59"/>
     </row>
-    <row r="10" spans="3:35" ht="15">
+    <row r="10" spans="3:35" ht="14.5">
       <c r="C10" t="str">
         <f>+IND!$AB$4</f>
         <v>Cement</v>
@@ -17884,7 +17887,7 @@
       <c r="AH10" s="60"/>
       <c r="AI10" s="59"/>
     </row>
-    <row r="11" spans="3:35" ht="15">
+    <row r="11" spans="3:35" ht="14.5">
       <c r="C11" t="str">
         <f>+IND!$AC$4</f>
         <v>Cement</v>
@@ -17980,7 +17983,7 @@
       <c r="AH11" s="60"/>
       <c r="AI11" s="59"/>
     </row>
-    <row r="12" spans="3:35" ht="15">
+    <row r="12" spans="3:35" ht="14.5">
       <c r="C12" t="str">
         <f>+IND!$AC$4</f>
         <v>Cement</v>
@@ -18076,7 +18079,7 @@
       <c r="AH12" s="60"/>
       <c r="AI12" s="59"/>
     </row>
-    <row r="13" spans="3:35" ht="15">
+    <row r="13" spans="3:35" ht="14.5">
       <c r="C13" t="str">
         <f>+IND!$AC$4</f>
         <v>Cement</v>
@@ -18172,7 +18175,7 @@
       <c r="AH13" s="60"/>
       <c r="AI13" s="59"/>
     </row>
-    <row r="14" spans="3:35" ht="15">
+    <row r="14" spans="3:35" ht="14.5">
       <c r="C14" t="str">
         <f>+IND!$AC$4</f>
         <v>Cement</v>
@@ -18268,7 +18271,7 @@
       <c r="AH14" s="60"/>
       <c r="AI14" s="59"/>
     </row>
-    <row r="15" spans="3:35" ht="15">
+    <row r="15" spans="3:35" ht="14.5">
       <c r="C15" t="str">
         <f>+IND!$AC$4</f>
         <v>Cement</v>
@@ -18364,7 +18367,7 @@
       <c r="AH15" s="60"/>
       <c r="AI15" s="59"/>
     </row>
-    <row r="16" spans="3:35" ht="15">
+    <row r="16" spans="3:35" ht="14.5">
       <c r="C16" t="str">
         <f>+IND!$AD$4</f>
         <v>Chemicals</v>
@@ -18460,7 +18463,7 @@
       <c r="AH16" s="60"/>
       <c r="AI16" s="59"/>
     </row>
-    <row r="17" spans="3:35" ht="15">
+    <row r="17" spans="3:35" ht="14.5">
       <c r="C17" t="str">
         <f>+IND!$AD$4</f>
         <v>Chemicals</v>
@@ -18556,7 +18559,7 @@
       <c r="AH17" s="60"/>
       <c r="AI17" s="59"/>
     </row>
-    <row r="18" spans="3:35" ht="15">
+    <row r="18" spans="3:35" ht="14.5">
       <c r="C18" t="str">
         <f>+IND!$AD$4</f>
         <v>Chemicals</v>
@@ -18652,7 +18655,7 @@
       <c r="AH18" s="60"/>
       <c r="AI18" s="59"/>
     </row>
-    <row r="19" spans="3:35" ht="15">
+    <row r="19" spans="3:35" ht="14.5">
       <c r="C19" t="str">
         <f>+IND!$AD$4</f>
         <v>Chemicals</v>
@@ -18748,7 +18751,7 @@
       <c r="AH19" s="60"/>
       <c r="AI19" s="59"/>
     </row>
-    <row r="20" spans="3:35" ht="15">
+    <row r="20" spans="3:35" ht="14.5">
       <c r="C20" t="str">
         <f>+IND!$AD$4</f>
         <v>Chemicals</v>
@@ -18844,7 +18847,7 @@
       <c r="AH20" s="60"/>
       <c r="AI20" s="59"/>
     </row>
-    <row r="21" spans="3:35" ht="15">
+    <row r="21" spans="3:35" ht="14.5">
       <c r="C21" t="str">
         <f>+IND!$AE$4</f>
         <v>Chemicals</v>
@@ -18940,7 +18943,7 @@
       <c r="AH21" s="60"/>
       <c r="AI21" s="59"/>
     </row>
-    <row r="22" spans="3:35" ht="15">
+    <row r="22" spans="3:35" ht="14.5">
       <c r="C22" t="str">
         <f>+IND!$AE$4</f>
         <v>Chemicals</v>
@@ -19036,7 +19039,7 @@
       <c r="AH22" s="60"/>
       <c r="AI22" s="59"/>
     </row>
-    <row r="23" spans="3:35" ht="15">
+    <row r="23" spans="3:35" ht="14.5">
       <c r="C23" t="str">
         <f>+IND!$AE$4</f>
         <v>Chemicals</v>
@@ -19132,7 +19135,7 @@
       <c r="AH23" s="60"/>
       <c r="AI23" s="59"/>
     </row>
-    <row r="24" spans="3:35" ht="15">
+    <row r="24" spans="3:35" ht="14.5">
       <c r="C24" t="str">
         <f>+IND!$AE$4</f>
         <v>Chemicals</v>
@@ -19228,7 +19231,7 @@
       <c r="AH24" s="60"/>
       <c r="AI24" s="59"/>
     </row>
-    <row r="25" spans="3:35" ht="15">
+    <row r="25" spans="3:35" ht="14.5">
       <c r="C25" t="str">
         <f>+IND!$AE$4</f>
         <v>Chemicals</v>
@@ -19324,7 +19327,7 @@
       <c r="AH25" s="60"/>
       <c r="AI25" s="59"/>
     </row>
-    <row r="26" spans="3:35" ht="15">
+    <row r="26" spans="3:35" ht="14.5">
       <c r="C26" t="str">
         <f>+IND!$AF$4</f>
         <v>Chemicals</v>
@@ -19420,7 +19423,7 @@
       <c r="AH26" s="60"/>
       <c r="AI26" s="59"/>
     </row>
-    <row r="27" spans="3:35" ht="15">
+    <row r="27" spans="3:35" ht="14.5">
       <c r="C27" t="str">
         <f>+IND!$AF$4</f>
         <v>Chemicals</v>
@@ -19516,7 +19519,7 @@
       <c r="AH27" s="60"/>
       <c r="AI27" s="59"/>
     </row>
-    <row r="28" spans="3:35" ht="15">
+    <row r="28" spans="3:35" ht="14.5">
       <c r="C28" t="str">
         <f>+IND!$AF$4</f>
         <v>Chemicals</v>
@@ -19612,7 +19615,7 @@
       <c r="AH28" s="60"/>
       <c r="AI28" s="59"/>
     </row>
-    <row r="29" spans="3:35" ht="15">
+    <row r="29" spans="3:35" ht="14.5">
       <c r="C29" t="str">
         <f>+IND!$AF$4</f>
         <v>Chemicals</v>
@@ -19708,7 +19711,7 @@
       <c r="AH29" s="60"/>
       <c r="AI29" s="59"/>
     </row>
-    <row r="30" spans="3:35" ht="15">
+    <row r="30" spans="3:35" ht="14.5">
       <c r="C30" t="str">
         <f>+IND!$AF$4</f>
         <v>Chemicals</v>
@@ -19804,7 +19807,7 @@
       <c r="AH30" s="60"/>
       <c r="AI30" s="59"/>
     </row>
-    <row r="31" spans="3:35" ht="15">
+    <row r="31" spans="3:35" ht="14.5">
       <c r="C31" t="str">
         <f>+IND!$AF$4</f>
         <v>Chemicals</v>
@@ -19900,7 +19903,7 @@
       <c r="AH31" s="60"/>
       <c r="AI31" s="59"/>
     </row>
-    <row r="32" spans="3:35" ht="15">
+    <row r="32" spans="3:35" ht="14.5">
       <c r="C32" t="str">
         <f>+IND!$AG$4</f>
         <v>Chemicals</v>
@@ -19996,7 +19999,7 @@
       <c r="AH32" s="60"/>
       <c r="AI32" s="59"/>
     </row>
-    <row r="33" spans="3:35" ht="15">
+    <row r="33" spans="3:35" ht="14.5">
       <c r="C33" t="str">
         <f>+IND!$AG$4</f>
         <v>Chemicals</v>
@@ -20092,7 +20095,7 @@
       <c r="AH33" s="60"/>
       <c r="AI33" s="59"/>
     </row>
-    <row r="34" spans="3:35" ht="15">
+    <row r="34" spans="3:35" ht="14.5">
       <c r="C34" t="str">
         <f>+IND!$AG$4</f>
         <v>Chemicals</v>
@@ -20188,7 +20191,7 @@
       <c r="AH34" s="60"/>
       <c r="AI34" s="59"/>
     </row>
-    <row r="35" spans="3:35" ht="15">
+    <row r="35" spans="3:35" ht="14.5">
       <c r="C35" t="str">
         <f>+IND!$AG$4</f>
         <v>Chemicals</v>
@@ -20284,7 +20287,7 @@
       <c r="AH35" s="60"/>
       <c r="AI35" s="59"/>
     </row>
-    <row r="36" spans="3:35" ht="15">
+    <row r="36" spans="3:35" ht="14.5">
       <c r="C36" t="str">
         <f>+IND!$AG$4</f>
         <v>Chemicals</v>
@@ -20380,7 +20383,7 @@
       <c r="AH36" s="60"/>
       <c r="AI36" s="59"/>
     </row>
-    <row r="37" spans="3:35" ht="15">
+    <row r="37" spans="3:35" ht="14.5">
       <c r="C37" t="str">
         <f>+IND!$AH$4</f>
         <v>Food and Drink</v>
@@ -20476,7 +20479,7 @@
       <c r="AH37" s="60"/>
       <c r="AI37" s="59"/>
     </row>
-    <row r="38" spans="3:35" ht="15">
+    <row r="38" spans="3:35" ht="14.5">
       <c r="C38" t="str">
         <f>+IND!$AH$4</f>
         <v>Food and Drink</v>
@@ -20572,7 +20575,7 @@
       <c r="AH38" s="60"/>
       <c r="AI38" s="59"/>
     </row>
-    <row r="39" spans="3:35" ht="15">
+    <row r="39" spans="3:35" ht="14.5">
       <c r="C39" t="str">
         <f>+IND!$AH$4</f>
         <v>Food and Drink</v>
@@ -20668,7 +20671,7 @@
       <c r="AH39" s="60"/>
       <c r="AI39" s="59"/>
     </row>
-    <row r="40" spans="3:35" ht="15">
+    <row r="40" spans="3:35" ht="14.5">
       <c r="C40" t="str">
         <f>+IND!$AH$4</f>
         <v>Food and Drink</v>
@@ -20764,7 +20767,7 @@
       <c r="AH40" s="60"/>
       <c r="AI40" s="59"/>
     </row>
-    <row r="41" spans="3:35" ht="15">
+    <row r="41" spans="3:35" ht="14.5">
       <c r="C41" t="str">
         <f>+IND!$AH$4</f>
         <v>Food and Drink</v>
@@ -20860,7 +20863,7 @@
       <c r="AH41" s="60"/>
       <c r="AI41" s="59"/>
     </row>
-    <row r="42" spans="3:35" ht="15">
+    <row r="42" spans="3:35" ht="14.5">
       <c r="C42" t="str">
         <f>+IND!$AI$4</f>
         <v>Food and Drink</v>
@@ -20956,7 +20959,7 @@
       <c r="AH42" s="60"/>
       <c r="AI42" s="59"/>
     </row>
-    <row r="43" spans="3:35" ht="15">
+    <row r="43" spans="3:35" ht="14.5">
       <c r="C43" t="str">
         <f>+IND!$AI$4</f>
         <v>Food and Drink</v>
@@ -21052,7 +21055,7 @@
       <c r="AH43" s="60"/>
       <c r="AI43" s="59"/>
     </row>
-    <row r="44" spans="3:35" ht="15">
+    <row r="44" spans="3:35" ht="14.5">
       <c r="C44" t="str">
         <f>+IND!$AI$4</f>
         <v>Food and Drink</v>
@@ -21148,7 +21151,7 @@
       <c r="AH44" s="60"/>
       <c r="AI44" s="59"/>
     </row>
-    <row r="45" spans="3:35" ht="15">
+    <row r="45" spans="3:35" ht="14.5">
       <c r="C45" t="str">
         <f>+IND!$AI$4</f>
         <v>Food and Drink</v>
@@ -21244,7 +21247,7 @@
       <c r="AH45" s="60"/>
       <c r="AI45" s="59"/>
     </row>
-    <row r="46" spans="3:35" ht="15">
+    <row r="46" spans="3:35" ht="14.5">
       <c r="C46" t="str">
         <f>+IND!$AI$4</f>
         <v>Food and Drink</v>
@@ -21340,7 +21343,7 @@
       <c r="AH46" s="60"/>
       <c r="AI46" s="59"/>
     </row>
-    <row r="47" spans="3:35" ht="15">
+    <row r="47" spans="3:35" ht="14.5">
       <c r="C47" t="str">
         <f>+IND!$AJ$4</f>
         <v>Food and Drink</v>
@@ -21436,7 +21439,7 @@
       <c r="AH47" s="60"/>
       <c r="AI47" s="59"/>
     </row>
-    <row r="48" spans="3:35" ht="15">
+    <row r="48" spans="3:35" ht="14.5">
       <c r="C48" t="str">
         <f>+IND!$AJ$4</f>
         <v>Food and Drink</v>
@@ -21532,7 +21535,7 @@
       <c r="AH48" s="60"/>
       <c r="AI48" s="59"/>
     </row>
-    <row r="49" spans="3:35" ht="15">
+    <row r="49" spans="3:35" ht="14.5">
       <c r="C49" t="str">
         <f>+IND!$AJ$4</f>
         <v>Food and Drink</v>
@@ -21628,7 +21631,7 @@
       <c r="AH49" s="60"/>
       <c r="AI49" s="59"/>
     </row>
-    <row r="50" spans="3:35" ht="15">
+    <row r="50" spans="3:35" ht="14.5">
       <c r="C50" t="str">
         <f>+IND!$AJ$4</f>
         <v>Food and Drink</v>
@@ -21724,7 +21727,7 @@
       <c r="AH50" s="60"/>
       <c r="AI50" s="59"/>
     </row>
-    <row r="51" spans="3:35" ht="15">
+    <row r="51" spans="3:35" ht="14.5">
       <c r="C51" t="str">
         <f>+IND!$AJ$4</f>
         <v>Food and Drink</v>
@@ -21820,7 +21823,7 @@
       <c r="AH51" s="60"/>
       <c r="AI51" s="59"/>
     </row>
-    <row r="52" spans="3:35" ht="15">
+    <row r="52" spans="3:35" ht="14.5">
       <c r="C52" t="str">
         <f>+IND!$AJ$4</f>
         <v>Food and Drink</v>
@@ -21916,7 +21919,7 @@
       <c r="AH52" s="60"/>
       <c r="AI52" s="59"/>
     </row>
-    <row r="53" spans="3:35" ht="15">
+    <row r="53" spans="3:35" ht="14.5">
       <c r="C53" t="str">
         <f>+IND!$AK$4</f>
         <v>Food and Drink</v>
@@ -22012,7 +22015,7 @@
       <c r="AH53" s="60"/>
       <c r="AI53" s="59"/>
     </row>
-    <row r="54" spans="3:35" ht="15">
+    <row r="54" spans="3:35" ht="14.5">
       <c r="C54" t="str">
         <f>+IND!$AK$4</f>
         <v>Food and Drink</v>
@@ -22108,7 +22111,7 @@
       <c r="AH54" s="60"/>
       <c r="AI54" s="59"/>
     </row>
-    <row r="55" spans="3:35" ht="15">
+    <row r="55" spans="3:35" ht="14.5">
       <c r="C55" t="str">
         <f>+IND!$AK$4</f>
         <v>Food and Drink</v>
@@ -22204,7 +22207,7 @@
       <c r="AH55" s="60"/>
       <c r="AI55" s="59"/>
     </row>
-    <row r="56" spans="3:35" ht="15">
+    <row r="56" spans="3:35" ht="14.5">
       <c r="C56" t="str">
         <f>+IND!$AK$4</f>
         <v>Food and Drink</v>
@@ -22300,7 +22303,7 @@
       <c r="AH56" s="60"/>
       <c r="AI56" s="59"/>
     </row>
-    <row r="57" spans="3:35" ht="15">
+    <row r="57" spans="3:35" ht="14.5">
       <c r="C57" t="str">
         <f>+IND!$AK$4</f>
         <v>Food and Drink</v>
@@ -22396,7 +22399,7 @@
       <c r="AH57" s="60"/>
       <c r="AI57" s="59"/>
     </row>
-    <row r="58" spans="3:35" ht="15">
+    <row r="58" spans="3:35" ht="14.5">
       <c r="C58" t="str">
         <f>+IND!$AL$4</f>
         <v>Lime</v>
@@ -22492,7 +22495,7 @@
       <c r="AH58" s="60"/>
       <c r="AI58" s="59"/>
     </row>
-    <row r="59" spans="3:35" ht="15">
+    <row r="59" spans="3:35" ht="14.5">
       <c r="C59" t="str">
         <f>+IND!$AL$4</f>
         <v>Lime</v>
@@ -22588,7 +22591,7 @@
       <c r="AH59" s="60"/>
       <c r="AI59" s="59"/>
     </row>
-    <row r="60" spans="3:35" ht="15">
+    <row r="60" spans="3:35" ht="14.5">
       <c r="C60" t="str">
         <f>+IND!$AL$4</f>
         <v>Lime</v>
@@ -22684,7 +22687,7 @@
       <c r="AH60" s="60"/>
       <c r="AI60" s="59"/>
     </row>
-    <row r="61" spans="3:35" ht="15">
+    <row r="61" spans="3:35" ht="14.5">
       <c r="C61" t="str">
         <f>+IND!$AL$4</f>
         <v>Lime</v>
@@ -22780,7 +22783,7 @@
       <c r="AH61" s="60"/>
       <c r="AI61" s="59"/>
     </row>
-    <row r="62" spans="3:35" ht="15">
+    <row r="62" spans="3:35" ht="14.5">
       <c r="C62" t="str">
         <f>+IND!$AM$4</f>
         <v>Lime</v>
@@ -22876,7 +22879,7 @@
       <c r="AH62" s="60"/>
       <c r="AI62" s="59"/>
     </row>
-    <row r="63" spans="3:35" ht="15">
+    <row r="63" spans="3:35" ht="14.5">
       <c r="C63" t="str">
         <f>+IND!$AM$4</f>
         <v>Lime</v>
@@ -22972,7 +22975,7 @@
       <c r="AH63" s="60"/>
       <c r="AI63" s="59"/>
     </row>
-    <row r="64" spans="3:35" ht="15">
+    <row r="64" spans="3:35" ht="14.5">
       <c r="C64" t="str">
         <f>+IND!$AM$4</f>
         <v>Lime</v>
@@ -23068,7 +23071,7 @@
       <c r="AH64" s="60"/>
       <c r="AI64" s="59"/>
     </row>
-    <row r="65" spans="3:35" ht="15">
+    <row r="65" spans="3:35" ht="14.5">
       <c r="C65" t="str">
         <f>+IND!$AM$4</f>
         <v>Lime</v>
@@ -23164,7 +23167,7 @@
       <c r="AH65" s="60"/>
       <c r="AI65" s="59"/>
     </row>
-    <row r="66" spans="3:35" ht="15">
+    <row r="66" spans="3:35" ht="14.5">
       <c r="C66" t="str">
         <f>+IND!$AM$4</f>
         <v>Lime</v>
@@ -23260,7 +23263,7 @@
       <c r="AH66" s="60"/>
       <c r="AI66" s="59"/>
     </row>
-    <row r="67" spans="3:35" ht="15">
+    <row r="67" spans="3:35" ht="14.5">
       <c r="C67" t="str">
         <f>+IND!$AN$4</f>
         <v>Lime</v>
@@ -23356,7 +23359,7 @@
       <c r="AH67" s="60"/>
       <c r="AI67" s="59"/>
     </row>
-    <row r="68" spans="3:35" ht="15">
+    <row r="68" spans="3:35" ht="14.5">
       <c r="C68" t="str">
         <f>+IND!$AN$4</f>
         <v>Lime</v>
@@ -23452,7 +23455,7 @@
       <c r="AH68" s="60"/>
       <c r="AI68" s="59"/>
     </row>
-    <row r="69" spans="3:35" ht="15">
+    <row r="69" spans="3:35" ht="14.5">
       <c r="C69" t="str">
         <f>+IND!$AN$4</f>
         <v>Lime</v>
@@ -23548,7 +23551,7 @@
       <c r="AH69" s="60"/>
       <c r="AI69" s="59"/>
     </row>
-    <row r="70" spans="3:35" ht="15">
+    <row r="70" spans="3:35" ht="14.5">
       <c r="C70" t="str">
         <f>+IND!$AN$4</f>
         <v>Lime</v>
@@ -23644,7 +23647,7 @@
       <c r="AH70" s="60"/>
       <c r="AI70" s="59"/>
     </row>
-    <row r="71" spans="3:35" ht="15">
+    <row r="71" spans="3:35" ht="14.5">
       <c r="C71" t="str">
         <f>+IND!$AO$4</f>
         <v>Metals</v>
@@ -23740,7 +23743,7 @@
       <c r="AH71" s="60"/>
       <c r="AI71" s="59"/>
     </row>
-    <row r="72" spans="3:35" ht="15">
+    <row r="72" spans="3:35" ht="14.5">
       <c r="C72" t="str">
         <f>+IND!$AO$4</f>
         <v>Metals</v>
@@ -23836,7 +23839,7 @@
       <c r="AH72" s="60"/>
       <c r="AI72" s="59"/>
     </row>
-    <row r="73" spans="3:35" ht="15">
+    <row r="73" spans="3:35" ht="14.5">
       <c r="C73" t="str">
         <f>+IND!$AO$4</f>
         <v>Metals</v>
@@ -23932,7 +23935,7 @@
       <c r="AH73" s="60"/>
       <c r="AI73" s="59"/>
     </row>
-    <row r="74" spans="3:35" ht="15">
+    <row r="74" spans="3:35" ht="14.5">
       <c r="C74" t="str">
         <f>+IND!$AO$4</f>
         <v>Metals</v>
@@ -24028,7 +24031,7 @@
       <c r="AH74" s="60"/>
       <c r="AI74" s="59"/>
     </row>
-    <row r="75" spans="3:35" ht="15">
+    <row r="75" spans="3:35" ht="14.5">
       <c r="C75" t="str">
         <f>+IND!$AO$4</f>
         <v>Metals</v>
@@ -24124,7 +24127,7 @@
       <c r="AH75" s="60"/>
       <c r="AI75" s="59"/>
     </row>
-    <row r="76" spans="3:35" ht="15">
+    <row r="76" spans="3:35" ht="14.5">
       <c r="C76" t="str">
         <f>+IND!$AP$4</f>
         <v>Metals</v>
@@ -24220,7 +24223,7 @@
       <c r="AH76" s="60"/>
       <c r="AI76" s="59"/>
     </row>
-    <row r="77" spans="3:35" ht="15">
+    <row r="77" spans="3:35" ht="14.5">
       <c r="C77" t="str">
         <f>+IND!$AP$4</f>
         <v>Metals</v>
@@ -24316,7 +24319,7 @@
       <c r="AH77" s="60"/>
       <c r="AI77" s="59"/>
     </row>
-    <row r="78" spans="3:35" ht="15">
+    <row r="78" spans="3:35" ht="14.5">
       <c r="C78" t="str">
         <f>+IND!$AP$4</f>
         <v>Metals</v>
@@ -24412,7 +24415,7 @@
       <c r="AH78" s="60"/>
       <c r="AI78" s="59"/>
     </row>
-    <row r="79" spans="3:35" ht="15">
+    <row r="79" spans="3:35" ht="14.5">
       <c r="C79" t="str">
         <f>+IND!$AP$4</f>
         <v>Metals</v>
@@ -24508,7 +24511,7 @@
       <c r="AH79" s="60"/>
       <c r="AI79" s="59"/>
     </row>
-    <row r="80" spans="3:35" ht="15">
+    <row r="80" spans="3:35" ht="14.5">
       <c r="C80" t="str">
         <f>+IND!$AP$4</f>
         <v>Metals</v>
@@ -24604,7 +24607,7 @@
       <c r="AH80" s="60"/>
       <c r="AI80" s="59"/>
     </row>
-    <row r="81" spans="3:35" ht="15">
+    <row r="81" spans="3:35" ht="14.5">
       <c r="C81" t="str">
         <f>+IND!$AP$4</f>
         <v>Metals</v>
@@ -24700,7 +24703,7 @@
       <c r="AH81" s="60"/>
       <c r="AI81" s="59"/>
     </row>
-    <row r="82" spans="3:35" ht="15">
+    <row r="82" spans="3:35" ht="14.5">
       <c r="C82" t="str">
         <f>+IND!$AQ$4</f>
         <v>Metals</v>
@@ -24796,7 +24799,7 @@
       <c r="AH82" s="60"/>
       <c r="AI82" s="59"/>
     </row>
-    <row r="83" spans="3:35" ht="15">
+    <row r="83" spans="3:35" ht="14.5">
       <c r="C83" t="str">
         <f>+IND!$AQ$4</f>
         <v>Metals</v>
@@ -24892,7 +24895,7 @@
       <c r="AH83" s="60"/>
       <c r="AI83" s="59"/>
     </row>
-    <row r="84" spans="3:35" ht="15">
+    <row r="84" spans="3:35" ht="14.5">
       <c r="C84" t="str">
         <f>+IND!$AQ$4</f>
         <v>Metals</v>
@@ -24988,7 +24991,7 @@
       <c r="AH84" s="60"/>
       <c r="AI84" s="59"/>
     </row>
-    <row r="85" spans="3:35" ht="15">
+    <row r="85" spans="3:35" ht="14.5">
       <c r="C85" t="str">
         <f>+IND!$AQ$4</f>
         <v>Metals</v>
@@ -25084,7 +25087,7 @@
       <c r="AH85" s="60"/>
       <c r="AI85" s="59"/>
     </row>
-    <row r="86" spans="3:35" ht="15">
+    <row r="86" spans="3:35" ht="14.5">
       <c r="C86" t="str">
         <f>+IND!$AQ$4</f>
         <v>Metals</v>
@@ -25180,7 +25183,7 @@
       <c r="AH86" s="60"/>
       <c r="AI86" s="59"/>
     </row>
-    <row r="87" spans="3:35" ht="15">
+    <row r="87" spans="3:35" ht="14.5">
       <c r="C87" t="str">
         <f>+IND!$AR$4</f>
         <v>Other Industry</v>
@@ -25276,7 +25279,7 @@
       <c r="AH87" s="60"/>
       <c r="AI87" s="59"/>
     </row>
-    <row r="88" spans="3:35" ht="15">
+    <row r="88" spans="3:35" ht="14.5">
       <c r="C88" t="str">
         <f>+IND!$AR$4</f>
         <v>Other Industry</v>
@@ -25372,7 +25375,7 @@
       <c r="AH88" s="60"/>
       <c r="AI88" s="59"/>
     </row>
-    <row r="89" spans="3:35" ht="15">
+    <row r="89" spans="3:35" ht="14.5">
       <c r="C89" t="str">
         <f>+IND!$AR$4</f>
         <v>Other Industry</v>
@@ -25468,7 +25471,7 @@
       <c r="AH89" s="60"/>
       <c r="AI89" s="59"/>
     </row>
-    <row r="90" spans="3:35" ht="15">
+    <row r="90" spans="3:35" ht="14.5">
       <c r="C90" t="str">
         <f>+IND!$AR$4</f>
         <v>Other Industry</v>
@@ -25564,7 +25567,7 @@
       <c r="AH90" s="60"/>
       <c r="AI90" s="59"/>
     </row>
-    <row r="91" spans="3:35" ht="15">
+    <row r="91" spans="3:35" ht="14.5">
       <c r="C91" t="str">
         <f>+IND!$AR$4</f>
         <v>Other Industry</v>
@@ -25660,7 +25663,7 @@
       <c r="AH91" s="60"/>
       <c r="AI91" s="59"/>
     </row>
-    <row r="92" spans="3:35" ht="15">
+    <row r="92" spans="3:35" ht="14.5">
       <c r="C92" t="str">
         <f>+IND!$AR$4</f>
         <v>Other Industry</v>
@@ -25756,7 +25759,7 @@
       <c r="AH92" s="60"/>
       <c r="AI92" s="59"/>
     </row>
-    <row r="93" spans="3:35" ht="15">
+    <row r="93" spans="3:35" ht="14.5">
       <c r="C93" t="str">
         <f>+IND!$AS$4</f>
         <v>Other Industry</v>
@@ -25852,7 +25855,7 @@
       <c r="AH93" s="60"/>
       <c r="AI93" s="59"/>
     </row>
-    <row r="94" spans="3:35" ht="15">
+    <row r="94" spans="3:35" ht="14.5">
       <c r="C94" t="str">
         <f>+IND!$AS$4</f>
         <v>Other Industry</v>
@@ -25948,7 +25951,7 @@
       <c r="AH94" s="60"/>
       <c r="AI94" s="59"/>
     </row>
-    <row r="95" spans="3:35" ht="15">
+    <row r="95" spans="3:35" ht="14.5">
       <c r="C95" t="str">
         <f>+IND!$AS$4</f>
         <v>Other Industry</v>
@@ -26044,7 +26047,7 @@
       <c r="AH95" s="60"/>
       <c r="AI95" s="59"/>
     </row>
-    <row r="96" spans="3:35" ht="15">
+    <row r="96" spans="3:35" ht="14.5">
       <c r="C96" t="str">
         <f>+IND!$AS$4</f>
         <v>Other Industry</v>
@@ -26140,7 +26143,7 @@
       <c r="AH96" s="60"/>
       <c r="AI96" s="59"/>
     </row>
-    <row r="97" spans="3:35" ht="15">
+    <row r="97" spans="3:35" ht="14.5">
       <c r="C97" t="str">
         <f>+IND!$AS$4</f>
         <v>Other Industry</v>
@@ -26236,7 +26239,7 @@
       <c r="AH97" s="60"/>
       <c r="AI97" s="59"/>
     </row>
-    <row r="98" spans="3:35" ht="15">
+    <row r="98" spans="3:35" ht="14.5">
       <c r="C98" t="str">
         <f>+IND!$AT$4</f>
         <v>Other Industry</v>
@@ -26332,7 +26335,7 @@
       <c r="AH98" s="60"/>
       <c r="AI98" s="59"/>
     </row>
-    <row r="99" spans="3:35" ht="15">
+    <row r="99" spans="3:35" ht="14.5">
       <c r="C99" t="str">
         <f>+IND!$AT$4</f>
         <v>Other Industry</v>
@@ -26428,7 +26431,7 @@
       <c r="AH99" s="60"/>
       <c r="AI99" s="59"/>
     </row>
-    <row r="100" spans="3:35" ht="15">
+    <row r="100" spans="3:35" ht="14.5">
       <c r="C100" t="str">
         <f>+IND!$AT$4</f>
         <v>Other Industry</v>
@@ -26524,7 +26527,7 @@
       <c r="AH100" s="60"/>
       <c r="AI100" s="59"/>
     </row>
-    <row r="101" spans="3:35" ht="15">
+    <row r="101" spans="3:35" ht="14.5">
       <c r="C101" t="str">
         <f>+IND!$AT$4</f>
         <v>Other Industry</v>
@@ -26620,7 +26623,7 @@
       <c r="AH101" s="60"/>
       <c r="AI101" s="59"/>
     </row>
-    <row r="102" spans="3:35" ht="15">
+    <row r="102" spans="3:35" ht="14.5">
       <c r="C102" t="str">
         <f>+IND!$AT$4</f>
         <v>Other Industry</v>
@@ -26716,7 +26719,7 @@
       <c r="AH102" s="60"/>
       <c r="AI102" s="59"/>
     </row>
-    <row r="103" spans="3:35" ht="15">
+    <row r="103" spans="3:35" ht="14.5">
       <c r="C103" t="str">
         <f>+IND!$AU$4</f>
         <v>Other Industry</v>
@@ -26812,7 +26815,7 @@
       <c r="AH103" s="60"/>
       <c r="AI103" s="59"/>
     </row>
-    <row r="104" spans="3:35" ht="15">
+    <row r="104" spans="3:35" ht="14.5">
       <c r="C104" t="str">
         <f>+IND!$AU$4</f>
         <v>Other Industry</v>
@@ -26908,7 +26911,7 @@
       <c r="AH104" s="60"/>
       <c r="AI104" s="59"/>
     </row>
-    <row r="105" spans="3:35" ht="15">
+    <row r="105" spans="3:35" ht="14.5">
       <c r="C105" t="str">
         <f>+IND!$AU$4</f>
         <v>Other Industry</v>
@@ -27004,7 +27007,7 @@
       <c r="AH105" s="60"/>
       <c r="AI105" s="59"/>
     </row>
-    <row r="106" spans="3:35" ht="15">
+    <row r="106" spans="3:35" ht="14.5">
       <c r="C106" t="str">
         <f>+IND!$AU$4</f>
         <v>Other Industry</v>
@@ -27100,7 +27103,7 @@
       <c r="AH106" s="60"/>
       <c r="AI106" s="59"/>
     </row>
-    <row r="107" spans="3:35" ht="15">
+    <row r="107" spans="3:35" ht="14.5">
       <c r="C107" t="str">
         <f>+IND!$AU$4</f>
         <v>Other Industry</v>
@@ -27196,7 +27199,7 @@
       <c r="AH107" s="60"/>
       <c r="AI107" s="59"/>
     </row>
-    <row r="108" spans="3:35" ht="15">
+    <row r="108" spans="3:35" ht="14.5">
       <c r="C108" t="str">
         <f>+IND!$AV$4</f>
         <v>Other Industry</v>
@@ -27292,7 +27295,7 @@
       <c r="AH108" s="60"/>
       <c r="AI108" s="59"/>
     </row>
-    <row r="109" spans="3:35" ht="15">
+    <row r="109" spans="3:35" ht="14.5">
       <c r="C109" t="str">
         <f>+IND!$AV$4</f>
         <v>Other Industry</v>
@@ -27388,7 +27391,7 @@
       <c r="AH109" s="60"/>
       <c r="AI109" s="59"/>
     </row>
-    <row r="110" spans="3:35" ht="15">
+    <row r="110" spans="3:35" ht="14.5">
       <c r="C110" t="str">
         <f>+IND!$AV$4</f>
         <v>Other Industry</v>
@@ -27484,7 +27487,7 @@
       <c r="AH110" s="60"/>
       <c r="AI110" s="59"/>
     </row>
-    <row r="111" spans="3:35" ht="15">
+    <row r="111" spans="3:35" ht="14.5">
       <c r="C111" t="str">
         <f>+IND!$AV$4</f>
         <v>Other Industry</v>
@@ -27580,7 +27583,7 @@
       <c r="AH111" s="60"/>
       <c r="AI111" s="59"/>
     </row>
-    <row r="112" spans="3:35" ht="15">
+    <row r="112" spans="3:35" ht="14.5">
       <c r="C112" t="str">
         <f>+IND!$AV$4</f>
         <v>Other Industry</v>
@@ -27676,7 +27679,7 @@
       <c r="AH112" s="60"/>
       <c r="AI112" s="59"/>
     </row>
-    <row r="113" spans="3:35" ht="15">
+    <row r="113" spans="3:35" ht="14.5">
       <c r="C113" t="str">
         <f>+IND!$AW$4</f>
         <v>Other Minerals</v>
@@ -27772,7 +27775,7 @@
       <c r="AH113" s="60"/>
       <c r="AI113" s="59"/>
     </row>
-    <row r="114" spans="3:35" ht="15">
+    <row r="114" spans="3:35" ht="14.5">
       <c r="C114" t="str">
         <f>+IND!$AW$4</f>
         <v>Other Minerals</v>
@@ -27868,7 +27871,7 @@
       <c r="AH114" s="60"/>
       <c r="AI114" s="59"/>
     </row>
-    <row r="115" spans="3:35" ht="15">
+    <row r="115" spans="3:35" ht="14.5">
       <c r="C115" t="str">
         <f>+IND!$AW$4</f>
         <v>Other Minerals</v>
@@ -27964,7 +27967,7 @@
       <c r="AH115" s="60"/>
       <c r="AI115" s="59"/>
     </row>
-    <row r="116" spans="3:35" ht="15">
+    <row r="116" spans="3:35" ht="14.5">
       <c r="C116" t="str">
         <f>+IND!$AW$4</f>
         <v>Other Minerals</v>
@@ -28060,7 +28063,7 @@
       <c r="AH116" s="60"/>
       <c r="AI116" s="59"/>
     </row>
-    <row r="117" spans="3:35" ht="15">
+    <row r="117" spans="3:35" ht="14.5">
       <c r="C117" t="str">
         <f>+IND!$AW$4</f>
         <v>Other Minerals</v>
@@ -28156,7 +28159,7 @@
       <c r="AH117" s="60"/>
       <c r="AI117" s="59"/>
     </row>
-    <row r="118" spans="3:35" ht="15">
+    <row r="118" spans="3:35" ht="14.5">
       <c r="C118" t="str">
         <f>+IND!$AX$4</f>
         <v>Other Minerals</v>
@@ -28252,7 +28255,7 @@
       <c r="AH118" s="60"/>
       <c r="AI118" s="59"/>
     </row>
-    <row r="119" spans="3:35" ht="15">
+    <row r="119" spans="3:35" ht="14.5">
       <c r="C119" t="str">
         <f>+IND!$AX$4</f>
         <v>Other Minerals</v>
@@ -28348,7 +28351,7 @@
       <c r="AH119" s="60"/>
       <c r="AI119" s="59"/>
     </row>
-    <row r="120" spans="3:35" ht="15">
+    <row r="120" spans="3:35" ht="14.5">
       <c r="C120" t="str">
         <f>+IND!$AX$4</f>
         <v>Other Minerals</v>
@@ -28444,7 +28447,7 @@
       <c r="AH120" s="60"/>
       <c r="AI120" s="59"/>
     </row>
-    <row r="121" spans="3:35" ht="15">
+    <row r="121" spans="3:35" ht="14.5">
       <c r="C121" t="str">
         <f>+IND!$AX$4</f>
         <v>Other Minerals</v>
@@ -28540,7 +28543,7 @@
       <c r="AH121" s="60"/>
       <c r="AI121" s="59"/>
     </row>
-    <row r="122" spans="3:35" ht="15">
+    <row r="122" spans="3:35" ht="14.5">
       <c r="C122" t="str">
         <f>+IND!$AX$4</f>
         <v>Other Minerals</v>
@@ -28636,7 +28639,7 @@
       <c r="AH122" s="60"/>
       <c r="AI122" s="59"/>
     </row>
-    <row r="123" spans="3:35" ht="15">
+    <row r="123" spans="3:35" ht="14.5">
       <c r="C123" t="str">
         <f>+IND!$AX$4</f>
         <v>Other Minerals</v>
@@ -28732,7 +28735,7 @@
       <c r="AH123" s="60"/>
       <c r="AI123" s="59"/>
     </row>
-    <row r="124" spans="3:35" ht="15">
+    <row r="124" spans="3:35" ht="14.5">
       <c r="C124" t="str">
         <f>+IND!$AY$4</f>
         <v>Other Minerals</v>
@@ -28828,7 +28831,7 @@
       <c r="AH124" s="60"/>
       <c r="AI124" s="59"/>
     </row>
-    <row r="125" spans="3:35" ht="15">
+    <row r="125" spans="3:35" ht="14.5">
       <c r="C125" t="str">
         <f>+IND!$AY$4</f>
         <v>Other Minerals</v>
@@ -28924,7 +28927,7 @@
       <c r="AH125" s="60"/>
       <c r="AI125" s="59"/>
     </row>
-    <row r="126" spans="3:35" ht="15">
+    <row r="126" spans="3:35" ht="14.5">
       <c r="C126" t="str">
         <f>+IND!$AY$4</f>
         <v>Other Minerals</v>
@@ -29020,7 +29023,7 @@
       <c r="AH126" s="60"/>
       <c r="AI126" s="59"/>
     </row>
-    <row r="127" spans="3:35" ht="15">
+    <row r="127" spans="3:35" ht="14.5">
       <c r="C127" t="str">
         <f>+IND!$AY$4</f>
         <v>Other Minerals</v>
@@ -29116,7 +29119,7 @@
       <c r="AH127" s="60"/>
       <c r="AI127" s="59"/>
     </row>
-    <row r="128" spans="3:35" ht="15">
+    <row r="128" spans="3:35" ht="14.5">
       <c r="C128" t="str">
         <f>+IND!$BC$4</f>
         <v>Wood Products</v>
@@ -29212,7 +29215,7 @@
       <c r="AH128" s="60"/>
       <c r="AI128" s="59"/>
     </row>
-    <row r="129" spans="3:35" ht="15">
+    <row r="129" spans="3:35" ht="14.5">
       <c r="C129" t="str">
         <f>+IND!$BC$4</f>
         <v>Wood Products</v>
@@ -29308,7 +29311,7 @@
       <c r="AH129" s="60"/>
       <c r="AI129" s="59"/>
     </row>
-    <row r="130" spans="3:35" ht="15">
+    <row r="130" spans="3:35" ht="14.5">
       <c r="C130" t="str">
         <f>+IND!$BC$4</f>
         <v>Wood Products</v>
@@ -29404,7 +29407,7 @@
       <c r="AH130" s="60"/>
       <c r="AI130" s="59"/>
     </row>
-    <row r="131" spans="3:35" ht="15">
+    <row r="131" spans="3:35" ht="14.5">
       <c r="C131" t="str">
         <f>+IND!$BC$4</f>
         <v>Wood Products</v>
@@ -29500,7 +29503,7 @@
       <c r="AH131" s="60"/>
       <c r="AI131" s="59"/>
     </row>
-    <row r="132" spans="3:35" ht="15">
+    <row r="132" spans="3:35" ht="14.5">
       <c r="C132" t="str">
         <f>+IND!$BC$4</f>
         <v>Wood Products</v>
@@ -29596,7 +29599,7 @@
       <c r="AH132" s="60"/>
       <c r="AI132" s="59"/>
     </row>
-    <row r="133" spans="3:35" ht="15">
+    <row r="133" spans="3:35" ht="14.5">
       <c r="C133" t="str">
         <f>+IND!$BD$4</f>
         <v>Wood Products</v>
@@ -29692,7 +29695,7 @@
       <c r="AH133" s="60"/>
       <c r="AI133" s="59"/>
     </row>
-    <row r="134" spans="3:35" ht="15">
+    <row r="134" spans="3:35" ht="14.5">
       <c r="C134" t="str">
         <f>+IND!$BD$4</f>
         <v>Wood Products</v>
@@ -29788,7 +29791,7 @@
       <c r="AH134" s="60"/>
       <c r="AI134" s="59"/>
     </row>
-    <row r="135" spans="3:35" ht="15">
+    <row r="135" spans="3:35" ht="14.5">
       <c r="C135" t="str">
         <f>+IND!$BD$4</f>
         <v>Wood Products</v>
@@ -29884,7 +29887,7 @@
       <c r="AH135" s="60"/>
       <c r="AI135" s="59"/>
     </row>
-    <row r="136" spans="3:35" ht="15">
+    <row r="136" spans="3:35" ht="14.5">
       <c r="C136" t="str">
         <f>+IND!$BD$4</f>
         <v>Wood Products</v>
@@ -29980,7 +29983,7 @@
       <c r="AH136" s="60"/>
       <c r="AI136" s="59"/>
     </row>
-    <row r="137" spans="3:35" ht="15">
+    <row r="137" spans="3:35" ht="14.5">
       <c r="C137" t="str">
         <f>+IND!$BD$4</f>
         <v>Wood Products</v>
@@ -30076,7 +30079,7 @@
       <c r="AH137" s="60"/>
       <c r="AI137" s="59"/>
     </row>
-    <row r="138" spans="3:35" ht="15">
+    <row r="138" spans="3:35" ht="14.5">
       <c r="C138" t="str">
         <f>+IND!$BD$4</f>
         <v>Wood Products</v>
@@ -30172,7 +30175,7 @@
       <c r="AH138" s="60"/>
       <c r="AI138" s="59"/>
     </row>
-    <row r="139" spans="3:35" ht="15">
+    <row r="139" spans="3:35" ht="14.5">
       <c r="C139" t="str">
         <f>+C7</f>
         <v>Cement</v>
@@ -30268,7 +30271,7 @@
       <c r="AH139" s="60"/>
       <c r="AI139" s="59"/>
     </row>
-    <row r="140" spans="3:35" ht="15">
+    <row r="140" spans="3:35" ht="14.5">
       <c r="C140" t="str">
         <f t="shared" ref="C140:E140" si="22">+C8</f>
         <v>Cement</v>
@@ -30364,7 +30367,7 @@
       <c r="AH140" s="60"/>
       <c r="AI140" s="59"/>
     </row>
-    <row r="141" spans="3:35" ht="15">
+    <row r="141" spans="3:35" ht="14.5">
       <c r="C141" t="str">
         <f t="shared" ref="C141:E141" si="23">+C9</f>
         <v>Cement</v>
@@ -30460,7 +30463,7 @@
       <c r="AH141" s="60"/>
       <c r="AI141" s="59"/>
     </row>
-    <row r="142" spans="3:35" ht="15">
+    <row r="142" spans="3:35" ht="14.5">
       <c r="C142" t="str">
         <f t="shared" ref="C142:E142" si="24">+C10</f>
         <v>Cement</v>
@@ -30556,7 +30559,7 @@
       <c r="AH142" s="60"/>
       <c r="AI142" s="59"/>
     </row>
-    <row r="143" spans="3:35" ht="15">
+    <row r="143" spans="3:35" ht="14.5">
       <c r="C143" t="str">
         <f t="shared" ref="C143:E143" si="25">+C11</f>
         <v>Cement</v>
@@ -30652,7 +30655,7 @@
       <c r="AH143" s="60"/>
       <c r="AI143" s="59"/>
     </row>
-    <row r="144" spans="3:35" ht="15">
+    <row r="144" spans="3:35" ht="14.5">
       <c r="C144" t="str">
         <f t="shared" ref="C144:E144" si="26">+C12</f>
         <v>Cement</v>
@@ -30748,7 +30751,7 @@
       <c r="AH144" s="60"/>
       <c r="AI144" s="59"/>
     </row>
-    <row r="145" spans="3:35" ht="15">
+    <row r="145" spans="3:35" ht="14.5">
       <c r="C145" t="str">
         <f t="shared" ref="C145:E145" si="27">+C13</f>
         <v>Cement</v>
@@ -30844,7 +30847,7 @@
       <c r="AH145" s="60"/>
       <c r="AI145" s="59"/>
     </row>
-    <row r="146" spans="3:35" ht="15">
+    <row r="146" spans="3:35" ht="14.5">
       <c r="C146" t="str">
         <f t="shared" ref="C146:E146" si="28">+C14</f>
         <v>Cement</v>
@@ -30940,7 +30943,7 @@
       <c r="AH146" s="60"/>
       <c r="AI146" s="59"/>
     </row>
-    <row r="147" spans="3:35" ht="15">
+    <row r="147" spans="3:35" ht="14.5">
       <c r="C147" t="str">
         <f t="shared" ref="C147:E147" si="29">+C15</f>
         <v>Cement</v>
@@ -31036,7 +31039,7 @@
       <c r="AH147" s="60"/>
       <c r="AI147" s="59"/>
     </row>
-    <row r="148" spans="3:35" ht="15">
+    <row r="148" spans="3:35" ht="14.5">
       <c r="C148" t="str">
         <f t="shared" ref="C148:E148" si="30">+C16</f>
         <v>Chemicals</v>
@@ -31132,7 +31135,7 @@
       <c r="AH148" s="60"/>
       <c r="AI148" s="59"/>
     </row>
-    <row r="149" spans="3:35" ht="15">
+    <row r="149" spans="3:35" ht="14.5">
       <c r="C149" t="str">
         <f t="shared" ref="C149:E149" si="31">+C17</f>
         <v>Chemicals</v>
@@ -31228,7 +31231,7 @@
       <c r="AH149" s="60"/>
       <c r="AI149" s="59"/>
     </row>
-    <row r="150" spans="3:35" ht="15">
+    <row r="150" spans="3:35" ht="14.5">
       <c r="C150" t="str">
         <f t="shared" ref="C150:E150" si="32">+C18</f>
         <v>Chemicals</v>
@@ -31324,7 +31327,7 @@
       <c r="AH150" s="60"/>
       <c r="AI150" s="59"/>
     </row>
-    <row r="151" spans="3:35" ht="15">
+    <row r="151" spans="3:35" ht="14.5">
       <c r="C151" t="str">
         <f t="shared" ref="C151:E151" si="33">+C19</f>
         <v>Chemicals</v>
@@ -31420,7 +31423,7 @@
       <c r="AH151" s="60"/>
       <c r="AI151" s="59"/>
     </row>
-    <row r="152" spans="3:35" ht="15">
+    <row r="152" spans="3:35" ht="14.5">
       <c r="C152" t="str">
         <f t="shared" ref="C152:E152" si="34">+C20</f>
         <v>Chemicals</v>
@@ -31516,7 +31519,7 @@
       <c r="AH152" s="60"/>
       <c r="AI152" s="59"/>
     </row>
-    <row r="153" spans="3:35" ht="15">
+    <row r="153" spans="3:35" ht="14.5">
       <c r="C153" t="str">
         <f t="shared" ref="C153:E153" si="35">+C21</f>
         <v>Chemicals</v>
@@ -31612,7 +31615,7 @@
       <c r="AH153" s="60"/>
       <c r="AI153" s="59"/>
     </row>
-    <row r="154" spans="3:35" ht="15">
+    <row r="154" spans="3:35" ht="14.5">
       <c r="C154" t="str">
         <f t="shared" ref="C154:E154" si="36">+C22</f>
         <v>Chemicals</v>
@@ -31708,7 +31711,7 @@
       <c r="AH154" s="60"/>
       <c r="AI154" s="59"/>
     </row>
-    <row r="155" spans="3:35" ht="15">
+    <row r="155" spans="3:35" ht="14.5">
       <c r="C155" t="str">
         <f t="shared" ref="C155:E155" si="37">+C23</f>
         <v>Chemicals</v>
@@ -31804,7 +31807,7 @@
       <c r="AH155" s="60"/>
       <c r="AI155" s="59"/>
     </row>
-    <row r="156" spans="3:35" ht="15">
+    <row r="156" spans="3:35" ht="14.5">
       <c r="C156" t="str">
         <f t="shared" ref="C156:E156" si="38">+C24</f>
         <v>Chemicals</v>
@@ -31900,7 +31903,7 @@
       <c r="AH156" s="60"/>
       <c r="AI156" s="59"/>
     </row>
-    <row r="157" spans="3:35" ht="15">
+    <row r="157" spans="3:35" ht="14.5">
       <c r="C157" t="str">
         <f t="shared" ref="C157:E157" si="39">+C25</f>
         <v>Chemicals</v>
@@ -31996,7 +31999,7 @@
       <c r="AH157" s="60"/>
       <c r="AI157" s="59"/>
     </row>
-    <row r="158" spans="3:35" ht="15">
+    <row r="158" spans="3:35" ht="14.5">
       <c r="C158" t="str">
         <f t="shared" ref="C158:E158" si="40">+C26</f>
         <v>Chemicals</v>
@@ -32092,7 +32095,7 @@
       <c r="AH158" s="60"/>
       <c r="AI158" s="59"/>
     </row>
-    <row r="159" spans="3:35" ht="15">
+    <row r="159" spans="3:35" ht="14.5">
       <c r="C159" t="str">
         <f t="shared" ref="C159:E159" si="41">+C27</f>
         <v>Chemicals</v>
@@ -32188,7 +32191,7 @@
       <c r="AH159" s="60"/>
       <c r="AI159" s="59"/>
     </row>
-    <row r="160" spans="3:35" ht="15">
+    <row r="160" spans="3:35" ht="14.5">
       <c r="C160" t="str">
         <f t="shared" ref="C160:E160" si="42">+C28</f>
         <v>Chemicals</v>
@@ -32284,7 +32287,7 @@
       <c r="AH160" s="60"/>
       <c r="AI160" s="59"/>
     </row>
-    <row r="161" spans="3:35" ht="15">
+    <row r="161" spans="3:35" ht="14.5">
       <c r="C161" t="str">
         <f t="shared" ref="C161:E161" si="43">+C29</f>
         <v>Chemicals</v>
@@ -32380,7 +32383,7 @@
       <c r="AH161" s="60"/>
       <c r="AI161" s="59"/>
     </row>
-    <row r="162" spans="3:35" ht="15">
+    <row r="162" spans="3:35" ht="14.5">
       <c r="C162" t="str">
         <f t="shared" ref="C162:E162" si="44">+C30</f>
         <v>Chemicals</v>
@@ -32476,7 +32479,7 @@
       <c r="AH162" s="60"/>
       <c r="AI162" s="59"/>
     </row>
-    <row r="163" spans="3:35" ht="15">
+    <row r="163" spans="3:35" ht="14.5">
       <c r="C163" t="str">
         <f t="shared" ref="C163:E163" si="45">+C31</f>
         <v>Chemicals</v>
@@ -32572,7 +32575,7 @@
       <c r="AH163" s="60"/>
       <c r="AI163" s="59"/>
     </row>
-    <row r="164" spans="3:35" ht="15">
+    <row r="164" spans="3:35" ht="14.5">
       <c r="C164" t="str">
         <f t="shared" ref="C164:E164" si="46">+C32</f>
         <v>Chemicals</v>
@@ -32668,7 +32671,7 @@
       <c r="AH164" s="60"/>
       <c r="AI164" s="59"/>
     </row>
-    <row r="165" spans="3:35" ht="15">
+    <row r="165" spans="3:35" ht="14.5">
       <c r="C165" t="str">
         <f t="shared" ref="C165:E165" si="47">+C33</f>
         <v>Chemicals</v>
@@ -32764,7 +32767,7 @@
       <c r="AH165" s="60"/>
       <c r="AI165" s="59"/>
     </row>
-    <row r="166" spans="3:35" ht="15">
+    <row r="166" spans="3:35" ht="14.5">
       <c r="C166" t="str">
         <f t="shared" ref="C166:E166" si="48">+C34</f>
         <v>Chemicals</v>
@@ -32860,7 +32863,7 @@
       <c r="AH166" s="60"/>
       <c r="AI166" s="59"/>
     </row>
-    <row r="167" spans="3:35" ht="15">
+    <row r="167" spans="3:35" ht="14.5">
       <c r="C167" t="str">
         <f t="shared" ref="C167:E167" si="49">+C35</f>
         <v>Chemicals</v>
@@ -32956,7 +32959,7 @@
       <c r="AH167" s="60"/>
       <c r="AI167" s="59"/>
     </row>
-    <row r="168" spans="3:35" ht="15">
+    <row r="168" spans="3:35" ht="14.5">
       <c r="C168" t="str">
         <f t="shared" ref="C168:E168" si="50">+C36</f>
         <v>Chemicals</v>
@@ -33052,7 +33055,7 @@
       <c r="AH168" s="60"/>
       <c r="AI168" s="59"/>
     </row>
-    <row r="169" spans="3:35" ht="15">
+    <row r="169" spans="3:35" ht="14.5">
       <c r="C169" t="str">
         <f t="shared" ref="C169:E169" si="51">+C37</f>
         <v>Food and Drink</v>
@@ -33148,7 +33151,7 @@
       <c r="AH169" s="60"/>
       <c r="AI169" s="59"/>
     </row>
-    <row r="170" spans="3:35" ht="15">
+    <row r="170" spans="3:35" ht="14.5">
       <c r="C170" t="str">
         <f t="shared" ref="C170:E170" si="52">+C38</f>
         <v>Food and Drink</v>
@@ -33244,7 +33247,7 @@
       <c r="AH170" s="60"/>
       <c r="AI170" s="59"/>
     </row>
-    <row r="171" spans="3:35" ht="15">
+    <row r="171" spans="3:35" ht="14.5">
       <c r="C171" t="str">
         <f t="shared" ref="C171:E171" si="53">+C39</f>
         <v>Food and Drink</v>
@@ -33340,7 +33343,7 @@
       <c r="AH171" s="60"/>
       <c r="AI171" s="59"/>
     </row>
-    <row r="172" spans="3:35" ht="15">
+    <row r="172" spans="3:35" ht="14.5">
       <c r="C172" t="str">
         <f t="shared" ref="C172:E172" si="54">+C40</f>
         <v>Food and Drink</v>
@@ -33436,7 +33439,7 @@
       <c r="AH172" s="60"/>
       <c r="AI172" s="59"/>
     </row>
-    <row r="173" spans="3:35" ht="15">
+    <row r="173" spans="3:35" ht="14.5">
       <c r="C173" t="str">
         <f t="shared" ref="C173:E173" si="55">+C41</f>
         <v>Food and Drink</v>
@@ -33532,7 +33535,7 @@
       <c r="AH173" s="60"/>
       <c r="AI173" s="59"/>
     </row>
-    <row r="174" spans="3:35" ht="15">
+    <row r="174" spans="3:35" ht="14.5">
       <c r="C174" t="str">
         <f t="shared" ref="C174:E174" si="56">+C42</f>
         <v>Food and Drink</v>
@@ -33628,7 +33631,7 @@
       <c r="AH174" s="60"/>
       <c r="AI174" s="59"/>
     </row>
-    <row r="175" spans="3:35" ht="15">
+    <row r="175" spans="3:35" ht="14.5">
       <c r="C175" t="str">
         <f t="shared" ref="C175:E175" si="57">+C43</f>
         <v>Food and Drink</v>
@@ -33724,7 +33727,7 @@
       <c r="AH175" s="60"/>
       <c r="AI175" s="59"/>
     </row>
-    <row r="176" spans="3:35" ht="15">
+    <row r="176" spans="3:35" ht="14.5">
       <c r="C176" t="str">
         <f t="shared" ref="C176:E176" si="58">+C44</f>
         <v>Food and Drink</v>
@@ -33820,7 +33823,7 @@
       <c r="AH176" s="60"/>
       <c r="AI176" s="59"/>
     </row>
-    <row r="177" spans="3:35" ht="15">
+    <row r="177" spans="3:35" ht="14.5">
       <c r="C177" t="str">
         <f t="shared" ref="C177:E177" si="59">+C45</f>
         <v>Food and Drink</v>
@@ -33916,7 +33919,7 @@
       <c r="AH177" s="60"/>
       <c r="AI177" s="59"/>
     </row>
-    <row r="178" spans="3:35" ht="15">
+    <row r="178" spans="3:35" ht="14.5">
       <c r="C178" t="str">
         <f t="shared" ref="C178:E178" si="60">+C46</f>
         <v>Food and Drink</v>
@@ -34012,7 +34015,7 @@
       <c r="AH178" s="60"/>
       <c r="AI178" s="59"/>
     </row>
-    <row r="179" spans="3:35" ht="15">
+    <row r="179" spans="3:35" ht="14.5">
       <c r="C179" t="str">
         <f t="shared" ref="C179:E179" si="61">+C47</f>
         <v>Food and Drink</v>
@@ -34108,7 +34111,7 @@
       <c r="AH179" s="60"/>
       <c r="AI179" s="59"/>
     </row>
-    <row r="180" spans="3:35" ht="15">
+    <row r="180" spans="3:35" ht="14.5">
       <c r="C180" t="str">
         <f t="shared" ref="C180:E180" si="62">+C48</f>
         <v>Food and Drink</v>
@@ -34204,7 +34207,7 @@
       <c r="AH180" s="60"/>
       <c r="AI180" s="59"/>
     </row>
-    <row r="181" spans="3:35" ht="15">
+    <row r="181" spans="3:35" ht="14.5">
       <c r="C181" t="str">
         <f t="shared" ref="C181:E181" si="63">+C49</f>
         <v>Food and Drink</v>
@@ -34300,7 +34303,7 @@
       <c r="AH181" s="60"/>
       <c r="AI181" s="59"/>
     </row>
-    <row r="182" spans="3:35" ht="15">
+    <row r="182" spans="3:35" ht="14.5">
       <c r="C182" t="str">
         <f t="shared" ref="C182:E182" si="64">+C50</f>
         <v>Food and Drink</v>
@@ -34396,7 +34399,7 @@
       <c r="AH182" s="60"/>
       <c r="AI182" s="59"/>
     </row>
-    <row r="183" spans="3:35" ht="15">
+    <row r="183" spans="3:35" ht="14.5">
       <c r="C183" t="str">
         <f t="shared" ref="C183:E183" si="65">+C51</f>
         <v>Food and Drink</v>
@@ -34492,7 +34495,7 @@
       <c r="AH183" s="60"/>
       <c r="AI183" s="59"/>
     </row>
-    <row r="184" spans="3:35" ht="15">
+    <row r="184" spans="3:35" ht="14.5">
       <c r="C184" t="str">
         <f t="shared" ref="C184:E184" si="66">+C52</f>
         <v>Food and Drink</v>
@@ -34588,7 +34591,7 @@
       <c r="AH184" s="60"/>
       <c r="AI184" s="59"/>
     </row>
-    <row r="185" spans="3:35" ht="15">
+    <row r="185" spans="3:35" ht="14.5">
       <c r="C185" t="str">
         <f t="shared" ref="C185:E185" si="67">+C53</f>
         <v>Food and Drink</v>
@@ -34684,7 +34687,7 @@
       <c r="AH185" s="60"/>
       <c r="AI185" s="59"/>
     </row>
-    <row r="186" spans="3:35" ht="15">
+    <row r="186" spans="3:35" ht="14.5">
       <c r="C186" t="str">
         <f t="shared" ref="C186:E186" si="68">+C54</f>
         <v>Food and Drink</v>
@@ -34780,7 +34783,7 @@
       <c r="AH186" s="60"/>
       <c r="AI186" s="59"/>
     </row>
-    <row r="187" spans="3:35" ht="15">
+    <row r="187" spans="3:35" ht="14.5">
       <c r="C187" t="str">
         <f t="shared" ref="C187:E187" si="69">+C55</f>
         <v>Food and Drink</v>
@@ -34876,7 +34879,7 @@
       <c r="AH187" s="60"/>
       <c r="AI187" s="59"/>
     </row>
-    <row r="188" spans="3:35" ht="15">
+    <row r="188" spans="3:35" ht="14.5">
       <c r="C188" t="str">
         <f t="shared" ref="C188:E188" si="70">+C56</f>
         <v>Food and Drink</v>
@@ -34972,7 +34975,7 @@
       <c r="AH188" s="60"/>
       <c r="AI188" s="59"/>
     </row>
-    <row r="189" spans="3:35" ht="15">
+    <row r="189" spans="3:35" ht="14.5">
       <c r="C189" t="str">
         <f t="shared" ref="C189:E189" si="71">+C57</f>
         <v>Food and Drink</v>
@@ -35068,7 +35071,7 @@
       <c r="AH189" s="60"/>
       <c r="AI189" s="59"/>
     </row>
-    <row r="190" spans="3:35" ht="15">
+    <row r="190" spans="3:35" ht="14.5">
       <c r="C190" t="str">
         <f t="shared" ref="C190:E190" si="72">+C58</f>
         <v>Lime</v>
@@ -35164,7 +35167,7 @@
       <c r="AH190" s="60"/>
       <c r="AI190" s="59"/>
     </row>
-    <row r="191" spans="3:35" ht="15">
+    <row r="191" spans="3:35" ht="14.5">
       <c r="C191" t="str">
         <f t="shared" ref="C191:E191" si="73">+C59</f>
         <v>Lime</v>
@@ -35260,7 +35263,7 @@
       <c r="AH191" s="60"/>
       <c r="AI191" s="59"/>
     </row>
-    <row r="192" spans="3:35" ht="15">
+    <row r="192" spans="3:35" ht="14.5">
       <c r="C192" t="str">
         <f t="shared" ref="C192:E192" si="74">+C60</f>
         <v>Lime</v>
@@ -35356,7 +35359,7 @@
       <c r="AH192" s="60"/>
       <c r="AI192" s="59"/>
     </row>
-    <row r="193" spans="3:35" ht="15">
+    <row r="193" spans="3:35" ht="14.5">
       <c r="C193" t="str">
         <f t="shared" ref="C193:E193" si="75">+C61</f>
         <v>Lime</v>
@@ -35452,7 +35455,7 @@
       <c r="AH193" s="60"/>
       <c r="AI193" s="59"/>
     </row>
-    <row r="194" spans="3:35" ht="15">
+    <row r="194" spans="3:35" ht="14.5">
       <c r="C194" t="str">
         <f t="shared" ref="C194:E194" si="76">+C62</f>
         <v>Lime</v>
@@ -35548,7 +35551,7 @@
       <c r="AH194" s="60"/>
       <c r="AI194" s="59"/>
     </row>
-    <row r="195" spans="3:35" ht="15">
+    <row r="195" spans="3:35" ht="14.5">
       <c r="C195" t="str">
         <f t="shared" ref="C195:E195" si="77">+C63</f>
         <v>Lime</v>
@@ -35644,7 +35647,7 @@
       <c r="AH195" s="60"/>
       <c r="AI195" s="59"/>
     </row>
-    <row r="196" spans="3:35" ht="15">
+    <row r="196" spans="3:35" ht="14.5">
       <c r="C196" t="str">
         <f t="shared" ref="C196:E196" si="78">+C64</f>
         <v>Lime</v>
@@ -35740,7 +35743,7 @@
       <c r="AH196" s="60"/>
       <c r="AI196" s="59"/>
     </row>
-    <row r="197" spans="3:35" ht="15">
+    <row r="197" spans="3:35" ht="14.5">
       <c r="C197" t="str">
         <f t="shared" ref="C197:E197" si="79">+C65</f>
         <v>Lime</v>
@@ -35836,7 +35839,7 @@
       <c r="AH197" s="60"/>
       <c r="AI197" s="59"/>
     </row>
-    <row r="198" spans="3:35" ht="15">
+    <row r="198" spans="3:35" ht="14.5">
       <c r="C198" t="str">
         <f t="shared" ref="C198:E198" si="80">+C66</f>
         <v>Lime</v>
@@ -35932,7 +35935,7 @@
       <c r="AH198" s="60"/>
       <c r="AI198" s="59"/>
     </row>
-    <row r="199" spans="3:35" ht="15">
+    <row r="199" spans="3:35" ht="14.5">
       <c r="C199" t="str">
         <f t="shared" ref="C199:E199" si="81">+C67</f>
         <v>Lime</v>
@@ -36028,7 +36031,7 @@
       <c r="AH199" s="60"/>
       <c r="AI199" s="59"/>
     </row>
-    <row r="200" spans="3:35" ht="15">
+    <row r="200" spans="3:35" ht="14.5">
       <c r="C200" t="str">
         <f t="shared" ref="C200:E200" si="82">+C68</f>
         <v>Lime</v>
@@ -36124,7 +36127,7 @@
       <c r="AH200" s="60"/>
       <c r="AI200" s="59"/>
     </row>
-    <row r="201" spans="3:35" ht="15">
+    <row r="201" spans="3:35" ht="14.5">
       <c r="C201" t="str">
         <f t="shared" ref="C201:E201" si="90">+C69</f>
         <v>Lime</v>
@@ -36220,7 +36223,7 @@
       <c r="AH201" s="60"/>
       <c r="AI201" s="59"/>
     </row>
-    <row r="202" spans="3:35" ht="15">
+    <row r="202" spans="3:35" ht="14.5">
       <c r="C202" t="str">
         <f t="shared" ref="C202:E202" si="91">+C70</f>
         <v>Lime</v>
@@ -36316,7 +36319,7 @@
       <c r="AH202" s="60"/>
       <c r="AI202" s="59"/>
     </row>
-    <row r="203" spans="3:35" ht="15">
+    <row r="203" spans="3:35" ht="14.5">
       <c r="C203" t="str">
         <f t="shared" ref="C203:E203" si="92">+C71</f>
         <v>Metals</v>
@@ -36412,7 +36415,7 @@
       <c r="AH203" s="60"/>
       <c r="AI203" s="59"/>
     </row>
-    <row r="204" spans="3:35" ht="15">
+    <row r="204" spans="3:35" ht="14.5">
       <c r="C204" t="str">
         <f t="shared" ref="C204:E204" si="93">+C72</f>
         <v>Metals</v>
@@ -36508,7 +36511,7 @@
       <c r="AH204" s="60"/>
       <c r="AI204" s="59"/>
     </row>
-    <row r="205" spans="3:35" ht="15">
+    <row r="205" spans="3:35" ht="14.5">
       <c r="C205" t="str">
         <f t="shared" ref="C205:E205" si="94">+C73</f>
         <v>Metals</v>
@@ -36604,7 +36607,7 @@
       <c r="AH205" s="60"/>
       <c r="AI205" s="59"/>
     </row>
-    <row r="206" spans="3:35" ht="15">
+    <row r="206" spans="3:35" ht="14.5">
       <c r="C206" t="str">
         <f t="shared" ref="C206:E206" si="95">+C74</f>
         <v>Metals</v>
@@ -36700,7 +36703,7 @@
       <c r="AH206" s="60"/>
       <c r="AI206" s="59"/>
     </row>
-    <row r="207" spans="3:35" ht="15">
+    <row r="207" spans="3:35" ht="14.5">
       <c r="C207" t="str">
         <f t="shared" ref="C207:E207" si="96">+C75</f>
         <v>Metals</v>
@@ -36796,7 +36799,7 @@
       <c r="AH207" s="60"/>
       <c r="AI207" s="59"/>
     </row>
-    <row r="208" spans="3:35" ht="15">
+    <row r="208" spans="3:35" ht="14.5">
       <c r="C208" t="str">
         <f t="shared" ref="C208:E208" si="97">+C76</f>
         <v>Metals</v>
@@ -36892,7 +36895,7 @@
       <c r="AH208" s="60"/>
       <c r="AI208" s="59"/>
     </row>
-    <row r="209" spans="3:35" ht="15">
+    <row r="209" spans="3:35" ht="14.5">
       <c r="C209" t="str">
         <f t="shared" ref="C209:E209" si="98">+C77</f>
         <v>Metals</v>
@@ -36988,7 +36991,7 @@
       <c r="AH209" s="60"/>
       <c r="AI209" s="59"/>
     </row>
-    <row r="210" spans="3:35" ht="15">
+    <row r="210" spans="3:35" ht="14.5">
       <c r="C210" t="str">
         <f t="shared" ref="C210:E210" si="99">+C78</f>
         <v>Metals</v>
@@ -37084,7 +37087,7 @@
       <c r="AH210" s="60"/>
       <c r="AI210" s="59"/>
     </row>
-    <row r="211" spans="3:35" ht="15">
+    <row r="211" spans="3:35" ht="14.5">
       <c r="C211" t="str">
         <f t="shared" ref="C211:E211" si="100">+C79</f>
         <v>Metals</v>
@@ -37180,7 +37183,7 @@
       <c r="AH211" s="60"/>
       <c r="AI211" s="59"/>
     </row>
-    <row r="212" spans="3:35" ht="15">
+    <row r="212" spans="3:35" ht="14.5">
       <c r="C212" t="str">
         <f t="shared" ref="C212:E212" si="101">+C80</f>
         <v>Metals</v>
@@ -37276,7 +37279,7 @@
       <c r="AH212" s="60"/>
       <c r="AI212" s="59"/>
     </row>
-    <row r="213" spans="3:35" ht="15">
+    <row r="213" spans="3:35" ht="14.5">
       <c r="C213" t="str">
         <f t="shared" ref="C213:E213" si="102">+C81</f>
         <v>Metals</v>
@@ -37372,7 +37375,7 @@
       <c r="AH213" s="60"/>
       <c r="AI213" s="59"/>
     </row>
-    <row r="214" spans="3:35" ht="15">
+    <row r="214" spans="3:35" ht="14.5">
       <c r="C214" t="str">
         <f t="shared" ref="C214:E214" si="103">+C82</f>
         <v>Metals</v>
@@ -37468,7 +37471,7 @@
       <c r="AH214" s="60"/>
       <c r="AI214" s="59"/>
     </row>
-    <row r="215" spans="3:35" ht="15">
+    <row r="215" spans="3:35" ht="14.5">
       <c r="C215" t="str">
         <f t="shared" ref="C215:E215" si="104">+C83</f>
         <v>Metals</v>
@@ -37564,7 +37567,7 @@
       <c r="AH215" s="60"/>
       <c r="AI215" s="59"/>
     </row>
-    <row r="216" spans="3:35" ht="15">
+    <row r="216" spans="3:35" ht="14.5">
       <c r="C216" t="str">
         <f t="shared" ref="C216:E216" si="105">+C84</f>
         <v>Metals</v>
@@ -37660,7 +37663,7 @@
       <c r="AH216" s="60"/>
       <c r="AI216" s="59"/>
     </row>
-    <row r="217" spans="3:35" ht="15">
+    <row r="217" spans="3:35" ht="14.5">
       <c r="C217" t="str">
         <f t="shared" ref="C217:E217" si="106">+C85</f>
         <v>Metals</v>
@@ -37756,7 +37759,7 @@
       <c r="AH217" s="60"/>
       <c r="AI217" s="59"/>
     </row>
-    <row r="218" spans="3:35" ht="15">
+    <row r="218" spans="3:35" ht="14.5">
       <c r="C218" t="str">
         <f t="shared" ref="C218:E218" si="107">+C86</f>
         <v>Metals</v>
@@ -37852,7 +37855,7 @@
       <c r="AH218" s="60"/>
       <c r="AI218" s="59"/>
     </row>
-    <row r="219" spans="3:35" ht="15">
+    <row r="219" spans="3:35" ht="14.5">
       <c r="C219" t="str">
         <f t="shared" ref="C219:E219" si="108">+C87</f>
         <v>Other Industry</v>
@@ -37948,7 +37951,7 @@
       <c r="AH219" s="60"/>
       <c r="AI219" s="59"/>
     </row>
-    <row r="220" spans="3:35" ht="15">
+    <row r="220" spans="3:35" ht="14.5">
       <c r="C220" t="str">
         <f t="shared" ref="C220:E220" si="109">+C88</f>
         <v>Other Industry</v>
@@ -38044,7 +38047,7 @@
       <c r="AH220" s="60"/>
       <c r="AI220" s="59"/>
     </row>
-    <row r="221" spans="3:35" ht="15">
+    <row r="221" spans="3:35" ht="14.5">
       <c r="C221" t="str">
         <f t="shared" ref="C221:E221" si="110">+C89</f>
         <v>Other Industry</v>
@@ -38140,7 +38143,7 @@
       <c r="AH221" s="60"/>
       <c r="AI221" s="59"/>
     </row>
-    <row r="222" spans="3:35" ht="15">
+    <row r="222" spans="3:35" ht="14.5">
       <c r="C222" t="str">
         <f t="shared" ref="C222:E222" si="111">+C90</f>
         <v>Other Industry</v>
@@ -38236,7 +38239,7 @@
       <c r="AH222" s="60"/>
       <c r="AI222" s="59"/>
     </row>
-    <row r="223" spans="3:35" ht="15">
+    <row r="223" spans="3:35" ht="14.5">
       <c r="C223" t="str">
         <f t="shared" ref="C223:E223" si="112">+C91</f>
         <v>Other Industry</v>
@@ -38332,7 +38335,7 @@
       <c r="AH223" s="60"/>
       <c r="AI223" s="59"/>
     </row>
-    <row r="224" spans="3:35" ht="15">
+    <row r="224" spans="3:35" ht="14.5">
       <c r="C224" t="str">
         <f t="shared" ref="C224:E224" si="113">+C92</f>
         <v>Other Industry</v>
@@ -38428,7 +38431,7 @@
       <c r="AH224" s="60"/>
       <c r="AI224" s="59"/>
     </row>
-    <row r="225" spans="3:35" ht="15">
+    <row r="225" spans="3:35" ht="14.5">
       <c r="C225" t="str">
         <f t="shared" ref="C225:E225" si="114">+C93</f>
         <v>Other Industry</v>
@@ -38524,7 +38527,7 @@
       <c r="AH225" s="60"/>
       <c r="AI225" s="59"/>
     </row>
-    <row r="226" spans="3:35" ht="15">
+    <row r="226" spans="3:35" ht="14.5">
       <c r="C226" t="str">
         <f t="shared" ref="C226:E226" si="115">+C94</f>
         <v>Other Industry</v>
@@ -38620,7 +38623,7 @@
       <c r="AH226" s="60"/>
       <c r="AI226" s="59"/>
     </row>
-    <row r="227" spans="3:35" ht="15">
+    <row r="227" spans="3:35" ht="14.5">
       <c r="C227" t="str">
         <f t="shared" ref="C227:E227" si="116">+C95</f>
         <v>Other Industry</v>
@@ -38716,7 +38719,7 @@
       <c r="AH227" s="60"/>
       <c r="AI227" s="59"/>
     </row>
-    <row r="228" spans="3:35" ht="15">
+    <row r="228" spans="3:35" ht="14.5">
       <c r="C228" t="str">
         <f t="shared" ref="C228:E228" si="117">+C96</f>
         <v>Other Industry</v>
@@ -38812,7 +38815,7 @@
       <c r="AH228" s="60"/>
       <c r="AI228" s="59"/>
     </row>
-    <row r="229" spans="3:35" ht="15">
+    <row r="229" spans="3:35" ht="14.5">
       <c r="C229" t="str">
         <f t="shared" ref="C229:E229" si="118">+C97</f>
         <v>Other Industry</v>
@@ -38908,7 +38911,7 @@
       <c r="AH229" s="60"/>
       <c r="AI229" s="59"/>
     </row>
-    <row r="230" spans="3:35" ht="15">
+    <row r="230" spans="3:35" ht="14.5">
       <c r="C230" t="str">
         <f t="shared" ref="C230:E230" si="119">+C98</f>
         <v>Other Industry</v>
@@ -39004,7 +39007,7 @@
       <c r="AH230" s="60"/>
       <c r="AI230" s="59"/>
     </row>
-    <row r="231" spans="3:35" ht="15">
+    <row r="231" spans="3:35" ht="14.5">
       <c r="C231" t="str">
         <f t="shared" ref="C231:E231" si="120">+C99</f>
         <v>Other Industry</v>
@@ -39100,7 +39103,7 @@
       <c r="AH231" s="60"/>
       <c r="AI231" s="59"/>
     </row>
-    <row r="232" spans="3:35" ht="15">
+    <row r="232" spans="3:35" ht="14.5">
       <c r="C232" t="str">
         <f t="shared" ref="C232:E232" si="121">+C100</f>
         <v>Other Industry</v>
@@ -39196,7 +39199,7 @@
       <c r="AH232" s="60"/>
       <c r="AI232" s="59"/>
     </row>
-    <row r="233" spans="3:35" ht="15">
+    <row r="233" spans="3:35" ht="14.5">
       <c r="C233" t="str">
         <f t="shared" ref="C233:E233" si="122">+C101</f>
         <v>Other Industry</v>
@@ -39292,7 +39295,7 @@
       <c r="AH233" s="60"/>
       <c r="AI233" s="59"/>
     </row>
-    <row r="234" spans="3:35" ht="15">
+    <row r="234" spans="3:35" ht="14.5">
       <c r="C234" t="str">
         <f t="shared" ref="C234:E234" si="123">+C102</f>
         <v>Other Industry</v>
@@ -39388,7 +39391,7 @@
       <c r="AH234" s="60"/>
       <c r="AI234" s="59"/>
     </row>
-    <row r="235" spans="3:35" ht="15">
+    <row r="235" spans="3:35" ht="14.5">
       <c r="C235" t="str">
         <f t="shared" ref="C235:E235" si="124">+C103</f>
         <v>Other Industry</v>
@@ -39484,7 +39487,7 @@
       <c r="AH235" s="60"/>
       <c r="AI235" s="59"/>
     </row>
-    <row r="236" spans="3:35" ht="15">
+    <row r="236" spans="3:35" ht="14.5">
       <c r="C236" t="str">
         <f t="shared" ref="C236:E236" si="125">+C104</f>
         <v>Other Industry</v>
@@ -39580,7 +39583,7 @@
       <c r="AH236" s="60"/>
       <c r="AI236" s="59"/>
     </row>
-    <row r="237" spans="3:35" ht="15">
+    <row r="237" spans="3:35" ht="14.5">
       <c r="C237" t="str">
         <f t="shared" ref="C237:E237" si="126">+C105</f>
         <v>Other Industry</v>
@@ -39676,7 +39679,7 @@
       <c r="AH237" s="60"/>
       <c r="AI237" s="59"/>
     </row>
-    <row r="238" spans="3:35" ht="15">
+    <row r="238" spans="3:35" ht="14.5">
       <c r="C238" t="str">
         <f t="shared" ref="C238:E238" si="127">+C106</f>
         <v>Other Industry</v>
@@ -39772,7 +39775,7 @@
       <c r="AH238" s="60"/>
       <c r="AI238" s="59"/>
     </row>
-    <row r="239" spans="3:35" ht="15">
+    <row r="239" spans="3:35" ht="14.5">
       <c r="C239" t="str">
         <f t="shared" ref="C239:E239" si="128">+C107</f>
         <v>Other Industry</v>
@@ -39868,7 +39871,7 @@
       <c r="AH239" s="60"/>
       <c r="AI239" s="59"/>
     </row>
-    <row r="240" spans="3:35" ht="15">
+    <row r="240" spans="3:35" ht="14.5">
       <c r="C240" t="str">
         <f t="shared" ref="C240:E240" si="129">+C108</f>
         <v>Other Industry</v>
@@ -39964,7 +39967,7 @@
       <c r="AH240" s="60"/>
       <c r="AI240" s="59"/>
     </row>
-    <row r="241" spans="3:35" ht="15">
+    <row r="241" spans="3:35" ht="14.5">
       <c r="C241" t="str">
         <f t="shared" ref="C241:E241" si="130">+C109</f>
         <v>Other Industry</v>
@@ -40060,7 +40063,7 @@
       <c r="AH241" s="60"/>
       <c r="AI241" s="59"/>
     </row>
-    <row r="242" spans="3:35" ht="15">
+    <row r="242" spans="3:35" ht="14.5">
       <c r="C242" t="str">
         <f t="shared" ref="C242:E242" si="131">+C110</f>
         <v>Other Industry</v>
@@ -40156,7 +40159,7 @@
       <c r="AH242" s="60"/>
       <c r="AI242" s="59"/>
     </row>
-    <row r="243" spans="3:35" ht="15">
+    <row r="243" spans="3:35" ht="14.5">
       <c r="C243" t="str">
         <f t="shared" ref="C243:E243" si="132">+C111</f>
         <v>Other Industry</v>
@@ -40252,7 +40255,7 @@
       <c r="AH243" s="60"/>
       <c r="AI243" s="59"/>
     </row>
-    <row r="244" spans="3:35" ht="15">
+    <row r="244" spans="3:35" ht="14.5">
       <c r="C244" t="str">
         <f t="shared" ref="C244:E244" si="133">+C112</f>
         <v>Other Industry</v>
@@ -40348,7 +40351,7 @@
       <c r="AH244" s="60"/>
       <c r="AI244" s="59"/>
     </row>
-    <row r="245" spans="3:35" ht="15">
+    <row r="245" spans="3:35" ht="14.5">
       <c r="C245" t="str">
         <f t="shared" ref="C245:E245" si="134">+C113</f>
         <v>Other Minerals</v>
@@ -40444,7 +40447,7 @@
       <c r="AH245" s="60"/>
       <c r="AI245" s="59"/>
     </row>
-    <row r="246" spans="3:35" ht="15">
+    <row r="246" spans="3:35" ht="14.5">
       <c r="C246" t="str">
         <f t="shared" ref="C246:E246" si="135">+C114</f>
         <v>Other Minerals</v>
@@ -40540,7 +40543,7 @@
       <c r="AH246" s="60"/>
       <c r="AI246" s="59"/>
     </row>
-    <row r="247" spans="3:35" ht="15">
+    <row r="247" spans="3:35" ht="14.5">
       <c r="C247" t="str">
         <f t="shared" ref="C247:E247" si="136">+C115</f>
         <v>Other Minerals</v>
@@ -40636,7 +40639,7 @@
       <c r="AH247" s="60"/>
       <c r="AI247" s="59"/>
     </row>
-    <row r="248" spans="3:35" ht="15">
+    <row r="248" spans="3:35" ht="14.5">
       <c r="C248" t="str">
         <f t="shared" ref="C248:E248" si="137">+C116</f>
         <v>Other Minerals</v>
@@ -40732,7 +40735,7 @@
       <c r="AH248" s="60"/>
       <c r="AI248" s="59"/>
     </row>
-    <row r="249" spans="3:35" ht="15">
+    <row r="249" spans="3:35" ht="14.5">
       <c r="C249" t="str">
         <f t="shared" ref="C249:E249" si="138">+C117</f>
         <v>Other Minerals</v>
@@ -40828,7 +40831,7 @@
       <c r="AH249" s="60"/>
       <c r="AI249" s="59"/>
     </row>
-    <row r="250" spans="3:35" ht="15">
+    <row r="250" spans="3:35" ht="14.5">
       <c r="C250" t="str">
         <f t="shared" ref="C250:E250" si="139">+C118</f>
         <v>Other Minerals</v>
@@ -40924,7 +40927,7 @@
       <c r="AH250" s="60"/>
       <c r="AI250" s="59"/>
     </row>
-    <row r="251" spans="3:35" ht="15">
+    <row r="251" spans="3:35" ht="14.5">
       <c r="C251" t="str">
         <f t="shared" ref="C251:E251" si="140">+C119</f>
         <v>Other Minerals</v>
@@ -41020,7 +41023,7 @@
       <c r="AH251" s="60"/>
       <c r="AI251" s="59"/>
     </row>
-    <row r="252" spans="3:35" ht="15">
+    <row r="252" spans="3:35" ht="14.5">
       <c r="C252" t="str">
         <f t="shared" ref="C252:E252" si="141">+C120</f>
         <v>Other Minerals</v>
@@ -41116,7 +41119,7 @@
       <c r="AH252" s="60"/>
       <c r="AI252" s="59"/>
     </row>
-    <row r="253" spans="3:35" ht="15">
+    <row r="253" spans="3:35" ht="14.5">
       <c r="C253" t="str">
         <f t="shared" ref="C253:E253" si="142">+C121</f>
         <v>Other Minerals</v>
@@ -41212,7 +41215,7 @@
       <c r="AH253" s="60"/>
       <c r="AI253" s="59"/>
     </row>
-    <row r="254" spans="3:35" ht="15">
+    <row r="254" spans="3:35" ht="14.5">
       <c r="C254" t="str">
         <f t="shared" ref="C254:E254" si="143">+C122</f>
         <v>Other Minerals</v>
@@ -41308,7 +41311,7 @@
       <c r="AH254" s="60"/>
       <c r="AI254" s="59"/>
     </row>
-    <row r="255" spans="3:35" ht="15">
+    <row r="255" spans="3:35" ht="14.5">
       <c r="C255" t="str">
         <f t="shared" ref="C255:E255" si="144">+C123</f>
         <v>Other Minerals</v>
@@ -41404,7 +41407,7 @@
       <c r="AH255" s="60"/>
       <c r="AI255" s="59"/>
     </row>
-    <row r="256" spans="3:35" ht="15">
+    <row r="256" spans="3:35" ht="14.5">
       <c r="C256" t="str">
         <f t="shared" ref="C256:E256" si="145">+C124</f>
         <v>Other Minerals</v>
@@ -41500,7 +41503,7 @@
       <c r="AH256" s="60"/>
       <c r="AI256" s="59"/>
     </row>
-    <row r="257" spans="3:35" ht="15">
+    <row r="257" spans="3:35" ht="14.5">
       <c r="C257" t="str">
         <f t="shared" ref="C257:E257" si="146">+C125</f>
         <v>Other Minerals</v>
@@ -41596,7 +41599,7 @@
       <c r="AH257" s="60"/>
       <c r="AI257" s="59"/>
     </row>
-    <row r="258" spans="3:35" ht="15">
+    <row r="258" spans="3:35" ht="14.5">
       <c r="C258" t="str">
         <f t="shared" ref="C258:E258" si="147">+C126</f>
         <v>Other Minerals</v>
@@ -41692,7 +41695,7 @@
       <c r="AH258" s="60"/>
       <c r="AI258" s="59"/>
     </row>
-    <row r="259" spans="3:35" ht="15">
+    <row r="259" spans="3:35" ht="14.5">
       <c r="C259" t="str">
         <f t="shared" ref="C259:E259" si="148">+C127</f>
         <v>Other Minerals</v>
@@ -41788,7 +41791,7 @@
       <c r="AH259" s="60"/>
       <c r="AI259" s="59"/>
     </row>
-    <row r="260" spans="3:35" ht="15">
+    <row r="260" spans="3:35" ht="14.5">
       <c r="C260" t="str">
         <f t="shared" ref="C260:E260" si="149">+C128</f>
         <v>Wood Products</v>
@@ -41884,7 +41887,7 @@
       <c r="AH260" s="60"/>
       <c r="AI260" s="59"/>
     </row>
-    <row r="261" spans="3:35" ht="15">
+    <row r="261" spans="3:35" ht="14.5">
       <c r="C261" t="str">
         <f t="shared" ref="C261:E261" si="150">+C129</f>
         <v>Wood Products</v>
@@ -41980,7 +41983,7 @@
       <c r="AH261" s="60"/>
       <c r="AI261" s="59"/>
     </row>
-    <row r="262" spans="3:35" ht="15">
+    <row r="262" spans="3:35" ht="14.5">
       <c r="C262" t="str">
         <f t="shared" ref="C262:E262" si="151">+C130</f>
         <v>Wood Products</v>
@@ -42076,7 +42079,7 @@
       <c r="AH262" s="60"/>
       <c r="AI262" s="59"/>
     </row>
-    <row r="263" spans="3:35" ht="15">
+    <row r="263" spans="3:35" ht="14.5">
       <c r="C263" t="str">
         <f t="shared" ref="C263:E263" si="152">+C131</f>
         <v>Wood Products</v>
@@ -42172,7 +42175,7 @@
       <c r="AH263" s="60"/>
       <c r="AI263" s="59"/>
     </row>
-    <row r="264" spans="3:35" ht="15">
+    <row r="264" spans="3:35" ht="14.5">
       <c r="C264" t="str">
         <f t="shared" ref="C264:E264" si="153">+C132</f>
         <v>Wood Products</v>
@@ -42268,7 +42271,7 @@
       <c r="AH264" s="60"/>
       <c r="AI264" s="59"/>
     </row>
-    <row r="265" spans="3:35" ht="15">
+    <row r="265" spans="3:35" ht="14.5">
       <c r="C265" t="str">
         <f t="shared" ref="C265:E265" si="161">+C133</f>
         <v>Wood Products</v>
@@ -42364,7 +42367,7 @@
       <c r="AH265" s="60"/>
       <c r="AI265" s="59"/>
     </row>
-    <row r="266" spans="3:35" ht="15">
+    <row r="266" spans="3:35" ht="14.5">
       <c r="C266" t="str">
         <f t="shared" ref="C266:E266" si="162">+C134</f>
         <v>Wood Products</v>
@@ -42460,7 +42463,7 @@
       <c r="AH266" s="60"/>
       <c r="AI266" s="59"/>
     </row>
-    <row r="267" spans="3:35" ht="15">
+    <row r="267" spans="3:35" ht="14.5">
       <c r="C267" t="str">
         <f t="shared" ref="C267:E267" si="163">+C135</f>
         <v>Wood Products</v>
@@ -42556,7 +42559,7 @@
       <c r="AH267" s="60"/>
       <c r="AI267" s="59"/>
     </row>
-    <row r="268" spans="3:35" ht="15">
+    <row r="268" spans="3:35" ht="14.5">
       <c r="C268" t="str">
         <f t="shared" ref="C268:E268" si="164">+C136</f>
         <v>Wood Products</v>
@@ -42652,7 +42655,7 @@
       <c r="AH268" s="60"/>
       <c r="AI268" s="59"/>
     </row>
-    <row r="269" spans="3:35" ht="15">
+    <row r="269" spans="3:35" ht="14.5">
       <c r="C269" t="str">
         <f t="shared" ref="C269:E269" si="165">+C137</f>
         <v>Wood Products</v>
@@ -42748,7 +42751,7 @@
       <c r="AH269" s="60"/>
       <c r="AI269" s="59"/>
     </row>
-    <row r="270" spans="3:35" ht="15">
+    <row r="270" spans="3:35" ht="14.5">
       <c r="C270" t="str">
         <f t="shared" ref="C270:E270" si="166">+C138</f>
         <v>Wood Products</v>
@@ -42857,144 +42860,144 @@
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="44.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="26" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="27" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="44.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="19" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="47" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="65.54296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="26.7265625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="38" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="25" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="26" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="12" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="30.7265625" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="47" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="65.54296875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="30.7265625" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="38" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="30.7265625" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="25" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="30.7265625" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="26" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="27.7265625" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -44209,13 +44212,13 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="44.1796875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
@@ -44223,7 +44226,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15">
+    <row r="4" spans="2:15" ht="14.5">
       <c r="B4" s="36" t="s">
         <v>76</v>
       </c>
@@ -44267,7 +44270,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="15">
+    <row r="5" spans="2:15" ht="14.5">
       <c r="B5" s="36">
         <v>6</v>
       </c>
@@ -44301,7 +44304,7 @@
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
     </row>
-    <row r="6" spans="2:15" ht="15">
+    <row r="6" spans="2:15" ht="14.5">
       <c r="B6" s="36">
         <v>7</v>
       </c>
@@ -44333,7 +44336,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="15">
+    <row r="7" spans="2:15" ht="14.5">
       <c r="B7" s="36">
         <v>8</v>
       </c>
@@ -44365,7 +44368,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15">
+    <row r="8" spans="2:15" ht="14.5">
       <c r="B8" s="36">
         <v>14</v>
       </c>
@@ -44397,7 +44400,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15">
+    <row r="9" spans="2:15" ht="14.5">
       <c r="B9" s="36">
         <v>15</v>
       </c>
@@ -44429,7 +44432,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="15">
+    <row r="10" spans="2:15" ht="14.5">
       <c r="B10" s="36">
         <v>16</v>
       </c>
@@ -44461,7 +44464,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15">
+    <row r="11" spans="2:15" ht="14.5">
       <c r="B11" s="36">
         <v>22</v>
       </c>
@@ -44493,7 +44496,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="15">
+    <row r="12" spans="2:15" ht="14.5">
       <c r="B12" s="36">
         <v>23</v>
       </c>
@@ -44525,7 +44528,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="15">
+    <row r="13" spans="2:15" ht="14.5">
       <c r="B13" s="36">
         <v>24</v>
       </c>
@@ -44557,7 +44560,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="15">
+    <row r="14" spans="2:15" ht="14.5">
       <c r="B14" s="36">
         <v>30</v>
       </c>
@@ -44589,7 +44592,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="15">
+    <row r="15" spans="2:15" ht="14.5">
       <c r="B15" s="36">
         <v>31</v>
       </c>
@@ -44621,7 +44624,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="15">
+    <row r="16" spans="2:15" ht="14.5">
       <c r="B16" s="36">
         <v>32</v>
       </c>
@@ -44653,7 +44656,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="15">
+    <row r="17" spans="2:13" ht="14.5">
       <c r="B17" s="36">
         <v>38</v>
       </c>
@@ -44685,7 +44688,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="15">
+    <row r="18" spans="2:13" ht="14.5">
       <c r="B18" s="36">
         <v>39</v>
       </c>
@@ -44717,7 +44720,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="15">
+    <row r="19" spans="2:13" ht="14.5">
       <c r="B19" s="36">
         <v>40</v>
       </c>
@@ -44749,7 +44752,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="15">
+    <row r="20" spans="2:13" ht="14.5">
       <c r="B20" s="36">
         <v>46</v>
       </c>
@@ -44781,7 +44784,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15">
+    <row r="21" spans="2:13" ht="14.5">
       <c r="B21" s="36">
         <v>47</v>
       </c>
@@ -44813,7 +44816,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15">
+    <row r="22" spans="2:13" ht="14.5">
       <c r="B22" s="36">
         <v>48</v>
       </c>
@@ -44845,7 +44848,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15">
+    <row r="23" spans="2:13" ht="14.5">
       <c r="B23" s="36">
         <v>54</v>
       </c>
@@ -44877,7 +44880,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15">
+    <row r="24" spans="2:13" ht="14.5">
       <c r="B24" s="36">
         <v>55</v>
       </c>
@@ -44909,7 +44912,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15">
+    <row r="25" spans="2:13" ht="14.5">
       <c r="B25" s="36">
         <v>56</v>
       </c>
@@ -44941,7 +44944,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="15">
+    <row r="26" spans="2:13" ht="14.5">
       <c r="B26" s="36">
         <v>62</v>
       </c>
@@ -44973,7 +44976,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="15">
+    <row r="27" spans="2:13" ht="14.5">
       <c r="B27" s="36">
         <v>63</v>
       </c>
@@ -45005,7 +45008,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="15">
+    <row r="28" spans="2:13" ht="14.5">
       <c r="B28" s="36">
         <v>64</v>
       </c>
@@ -45037,7 +45040,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="15">
+    <row r="29" spans="2:13" ht="14.5">
       <c r="B29" s="36">
         <v>70</v>
       </c>
@@ -45069,7 +45072,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="15">
+    <row r="30" spans="2:13" ht="14.5">
       <c r="B30" s="36">
         <v>71</v>
       </c>
@@ -45101,7 +45104,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15">
+    <row r="31" spans="2:13" ht="14.5">
       <c r="B31" s="36">
         <v>72</v>
       </c>
@@ -45133,7 +45136,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="15">
+    <row r="32" spans="2:13" ht="14.5">
       <c r="B32" s="36">
         <v>78</v>
       </c>
@@ -45165,7 +45168,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="15">
+    <row r="33" spans="2:13" ht="14.5">
       <c r="B33" s="36">
         <v>79</v>
       </c>
@@ -45197,7 +45200,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="15">
+    <row r="34" spans="2:13" ht="14.5">
       <c r="B34" s="36">
         <v>80</v>
       </c>
@@ -45229,7 +45232,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="15">
+    <row r="35" spans="2:13" ht="14.5">
       <c r="B35" s="36">
         <v>86</v>
       </c>
@@ -45261,7 +45264,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="15">
+    <row r="36" spans="2:13" ht="14.5">
       <c r="B36" s="36">
         <v>87</v>
       </c>
@@ -45293,7 +45296,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="15">
+    <row r="37" spans="2:13" ht="14.5">
       <c r="B37" s="36">
         <v>88</v>
       </c>
@@ -45325,7 +45328,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="15">
+    <row r="38" spans="2:13" ht="14.5">
       <c r="B38" s="36">
         <v>94</v>
       </c>
@@ -45357,7 +45360,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="15">
+    <row r="39" spans="2:13" ht="14.5">
       <c r="B39" s="36">
         <v>95</v>
       </c>
@@ -45389,7 +45392,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="15">
+    <row r="40" spans="2:13" ht="14.5">
       <c r="B40" s="36">
         <v>96</v>
       </c>
@@ -45421,7 +45424,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="15">
+    <row r="41" spans="2:13" ht="14.5">
       <c r="B41" s="36">
         <v>102</v>
       </c>
@@ -45453,7 +45456,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="15">
+    <row r="42" spans="2:13" ht="14.5">
       <c r="B42" s="36">
         <v>103</v>
       </c>
@@ -45485,7 +45488,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="15">
+    <row r="43" spans="2:13" ht="14.5">
       <c r="B43" s="36">
         <v>104</v>
       </c>
@@ -45517,7 +45520,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="15">
+    <row r="44" spans="2:13" ht="14.5">
       <c r="B44" s="36">
         <v>110</v>
       </c>
@@ -45549,7 +45552,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="15">
+    <row r="45" spans="2:13" ht="14.5">
       <c r="B45" s="36">
         <v>111</v>
       </c>
@@ -45581,7 +45584,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="15">
+    <row r="46" spans="2:13" ht="14.5">
       <c r="B46" s="36">
         <v>112</v>
       </c>
@@ -45613,7 +45616,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="15">
+    <row r="47" spans="2:13" ht="14.5">
       <c r="B47" s="36">
         <v>118</v>
       </c>
@@ -45645,7 +45648,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="15">
+    <row r="48" spans="2:13" ht="14.5">
       <c r="B48" s="36">
         <v>119</v>
       </c>
@@ -45677,7 +45680,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="15">
+    <row r="49" spans="2:14" ht="14.5">
       <c r="B49" s="36">
         <v>120</v>
       </c>
@@ -45709,7 +45712,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="15">
+    <row r="50" spans="2:14" ht="14.5">
       <c r="B50" s="36">
         <v>126</v>
       </c>
@@ -45741,7 +45744,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="15">
+    <row r="51" spans="2:14" ht="14.5">
       <c r="B51" s="36">
         <v>127</v>
       </c>
@@ -45773,7 +45776,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="15">
+    <row r="52" spans="2:14" ht="14.5">
       <c r="B52" s="36">
         <v>128</v>
       </c>
@@ -45805,7 +45808,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="15">
+    <row r="53" spans="2:14" ht="14.5">
       <c r="B53" s="36">
         <v>134</v>
       </c>
@@ -45837,7 +45840,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="15">
+    <row r="54" spans="2:14" ht="14.5">
       <c r="B54" s="36">
         <v>135</v>
       </c>
@@ -45870,7 +45873,7 @@
       </c>
       <c r="N54" s="36"/>
     </row>
-    <row r="55" spans="2:14" ht="15">
+    <row r="55" spans="2:14" ht="14.5">
       <c r="B55" s="36">
         <v>136</v>
       </c>
@@ -45903,7 +45906,7 @@
       </c>
       <c r="N55" s="36"/>
     </row>
-    <row r="56" spans="2:14" ht="15">
+    <row r="56" spans="2:14" ht="14.5">
       <c r="B56" s="36">
         <v>142</v>
       </c>
@@ -45940,7 +45943,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="57" spans="2:14" ht="15">
+    <row r="57" spans="2:14" ht="14.5">
       <c r="B57" s="36">
         <v>143</v>
       </c>
@@ -45977,7 +45980,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="15">
+    <row r="58" spans="2:14" ht="14.5">
       <c r="B58" s="36">
         <v>144</v>
       </c>
@@ -46014,7 +46017,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="15">
+    <row r="59" spans="2:14" ht="14.5">
       <c r="B59" s="36">
         <v>150</v>
       </c>
@@ -46047,7 +46050,7 @@
       </c>
       <c r="N59" s="36"/>
     </row>
-    <row r="60" spans="2:14" ht="15">
+    <row r="60" spans="2:14" ht="14.5">
       <c r="B60" s="36">
         <v>151</v>
       </c>
@@ -46080,7 +46083,7 @@
       </c>
       <c r="N60" s="36"/>
     </row>
-    <row r="61" spans="2:14" ht="15">
+    <row r="61" spans="2:14" ht="14.5">
       <c r="B61" s="36">
         <v>152</v>
       </c>
@@ -46113,7 +46116,7 @@
       </c>
       <c r="N61" s="36"/>
     </row>
-    <row r="62" spans="2:14" ht="15">
+    <row r="62" spans="2:14" ht="14.5">
       <c r="B62" s="36">
         <v>158</v>
       </c>
@@ -46146,7 +46149,7 @@
       </c>
       <c r="N62" s="36"/>
     </row>
-    <row r="63" spans="2:14" ht="15">
+    <row r="63" spans="2:14" ht="14.5">
       <c r="B63" s="36">
         <v>159</v>
       </c>
@@ -46179,7 +46182,7 @@
       </c>
       <c r="N63" s="36"/>
     </row>
-    <row r="64" spans="2:14" ht="15">
+    <row r="64" spans="2:14" ht="14.5">
       <c r="B64" s="36">
         <v>160</v>
       </c>
@@ -46212,7 +46215,7 @@
       </c>
       <c r="N64" s="36"/>
     </row>
-    <row r="65" spans="2:14" ht="15">
+    <row r="65" spans="2:14" ht="14.5">
       <c r="B65" s="36">
         <v>166</v>
       </c>
@@ -46249,7 +46252,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="66" spans="2:14" ht="15">
+    <row r="66" spans="2:14" ht="14.5">
       <c r="B66" s="36">
         <v>167</v>
       </c>
@@ -46286,7 +46289,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="67" spans="2:14" ht="15">
+    <row r="67" spans="2:14" ht="14.5">
       <c r="B67" s="36">
         <v>168</v>
       </c>
@@ -46323,7 +46326,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="68" spans="2:14" ht="15">
+    <row r="68" spans="2:14" ht="14.5">
       <c r="B68" s="36">
         <v>174</v>
       </c>
@@ -46356,7 +46359,7 @@
       </c>
       <c r="N68" s="36"/>
     </row>
-    <row r="69" spans="2:14" ht="15">
+    <row r="69" spans="2:14" ht="14.5">
       <c r="B69" s="36">
         <v>175</v>
       </c>
@@ -46389,7 +46392,7 @@
       </c>
       <c r="N69" s="36"/>
     </row>
-    <row r="70" spans="2:14" ht="15">
+    <row r="70" spans="2:14" ht="14.5">
       <c r="B70" s="36">
         <v>176</v>
       </c>
@@ -46421,7 +46424,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="71" spans="2:14" ht="15">
+    <row r="71" spans="2:14" ht="14.5">
       <c r="B71" s="36">
         <v>182</v>
       </c>
@@ -46453,7 +46456,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="72" spans="2:14" ht="15">
+    <row r="72" spans="2:14" ht="14.5">
       <c r="B72" s="36">
         <v>183</v>
       </c>
@@ -46485,7 +46488,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="73" spans="2:14" ht="15">
+    <row r="73" spans="2:14" ht="14.5">
       <c r="B73" s="36">
         <v>184</v>
       </c>
@@ -46517,7 +46520,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="74" spans="2:14" ht="15">
+    <row r="74" spans="2:14" ht="14.5">
       <c r="B74" s="36">
         <v>190</v>
       </c>
@@ -46549,7 +46552,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="75" spans="2:14" ht="15">
+    <row r="75" spans="2:14" ht="14.5">
       <c r="B75" s="36">
         <v>191</v>
       </c>
@@ -46581,7 +46584,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="76" spans="2:14" ht="15">
+    <row r="76" spans="2:14" ht="14.5">
       <c r="B76" s="36">
         <v>192</v>
       </c>
@@ -46613,7 +46616,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="77" spans="2:14" ht="15">
+    <row r="77" spans="2:14" ht="14.5">
       <c r="B77" s="36">
         <v>198</v>
       </c>
@@ -46645,7 +46648,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="78" spans="2:14" ht="15">
+    <row r="78" spans="2:14" ht="14.5">
       <c r="B78" s="36">
         <v>199</v>
       </c>
@@ -46677,7 +46680,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="79" spans="2:14" ht="15">
+    <row r="79" spans="2:14" ht="14.5">
       <c r="B79" s="36">
         <v>200</v>
       </c>
@@ -46709,7 +46712,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="80" spans="2:14" ht="15">
+    <row r="80" spans="2:14" ht="14.5">
       <c r="B80" s="36">
         <v>206</v>
       </c>
@@ -46741,7 +46744,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="81" spans="2:13" ht="15">
+    <row r="81" spans="2:13" ht="14.5">
       <c r="B81" s="36">
         <v>207</v>
       </c>
@@ -46773,7 +46776,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="82" spans="2:13" ht="15">
+    <row r="82" spans="2:13" ht="14.5">
       <c r="B82" s="36">
         <v>208</v>
       </c>
@@ -46805,7 +46808,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="83" spans="2:13" ht="15">
+    <row r="83" spans="2:13" ht="14.5">
       <c r="B83" s="36">
         <v>214</v>
       </c>
@@ -46837,7 +46840,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="84" spans="2:13" ht="15">
+    <row r="84" spans="2:13" ht="14.5">
       <c r="B84" s="36">
         <v>215</v>
       </c>
@@ -46869,7 +46872,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="85" spans="2:13" ht="15">
+    <row r="85" spans="2:13" ht="14.5">
       <c r="B85" s="36">
         <v>216</v>
       </c>
@@ -46901,7 +46904,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="86" spans="2:13" ht="15">
+    <row r="86" spans="2:13" ht="14.5">
       <c r="B86" s="36">
         <v>222</v>
       </c>
@@ -46933,7 +46936,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="87" spans="2:13" ht="15">
+    <row r="87" spans="2:13" ht="14.5">
       <c r="B87" s="36">
         <v>223</v>
       </c>
@@ -46965,7 +46968,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="88" spans="2:13" ht="15">
+    <row r="88" spans="2:13" ht="14.5">
       <c r="B88" s="36">
         <v>224</v>
       </c>
@@ -46997,7 +47000,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="89" spans="2:13" ht="15">
+    <row r="89" spans="2:13" ht="14.5">
       <c r="B89" s="36">
         <v>230</v>
       </c>
@@ -47029,7 +47032,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="90" spans="2:13" ht="15">
+    <row r="90" spans="2:13" ht="14.5">
       <c r="B90" s="36">
         <v>231</v>
       </c>
@@ -47061,7 +47064,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="91" spans="2:13" ht="15">
+    <row r="91" spans="2:13" ht="14.5">
       <c r="B91" s="36">
         <v>232</v>
       </c>
@@ -47093,7 +47096,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="92" spans="2:13" ht="15">
+    <row r="92" spans="2:13" ht="14.5">
       <c r="B92" s="36">
         <v>238</v>
       </c>
@@ -47125,7 +47128,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="93" spans="2:13" ht="15">
+    <row r="93" spans="2:13" ht="14.5">
       <c r="B93" s="36">
         <v>239</v>
       </c>
@@ -47157,7 +47160,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="94" spans="2:13" ht="15">
+    <row r="94" spans="2:13" ht="14.5">
       <c r="B94" s="36">
         <v>240</v>
       </c>
@@ -47189,7 +47192,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="95" spans="2:13" ht="15">
+    <row r="95" spans="2:13" ht="14.5">
       <c r="B95" s="36">
         <v>246</v>
       </c>
@@ -47221,7 +47224,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="96" spans="2:13" ht="15">
+    <row r="96" spans="2:13" ht="14.5">
       <c r="B96" s="36">
         <v>247</v>
       </c>
@@ -47253,7 +47256,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="97" spans="2:13" ht="15">
+    <row r="97" spans="2:13" ht="14.5">
       <c r="B97" s="36">
         <v>248</v>
       </c>
@@ -47285,7 +47288,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="98" spans="2:13" ht="15">
+    <row r="98" spans="2:13" ht="14.5">
       <c r="B98" s="36">
         <v>254</v>
       </c>
@@ -47317,7 +47320,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="99" spans="2:13" ht="15">
+    <row r="99" spans="2:13" ht="14.5">
       <c r="B99" s="36">
         <v>255</v>
       </c>
@@ -47349,7 +47352,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="100" spans="2:13" ht="15">
+    <row r="100" spans="2:13" ht="14.5">
       <c r="B100" s="36">
         <v>256</v>
       </c>
@@ -47381,7 +47384,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="101" spans="2:13" ht="15">
+    <row r="101" spans="2:13" ht="14.5">
       <c r="B101" s="36">
         <v>262</v>
       </c>
@@ -47413,7 +47416,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="2:13" ht="15">
+    <row r="102" spans="2:13" ht="14.5">
       <c r="B102" s="36">
         <v>263</v>
       </c>
@@ -47445,7 +47448,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="2:13" ht="15">
+    <row r="103" spans="2:13" ht="14.5">
       <c r="B103" s="36">
         <v>264</v>
       </c>
@@ -47477,7 +47480,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="2:13" ht="15">
+    <row r="104" spans="2:13" ht="14.5">
       <c r="B104" s="36">
         <v>270</v>
       </c>
@@ -47509,7 +47512,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="105" spans="2:13" ht="15">
+    <row r="105" spans="2:13" ht="14.5">
       <c r="B105" s="36">
         <v>271</v>
       </c>
@@ -47541,7 +47544,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="106" spans="2:13" ht="15">
+    <row r="106" spans="2:13" ht="14.5">
       <c r="B106" s="36">
         <v>272</v>
       </c>
@@ -47573,7 +47576,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="107" spans="2:13" ht="15">
+    <row r="107" spans="2:13" ht="14.5">
       <c r="B107" s="36">
         <v>278</v>
       </c>
@@ -47605,7 +47608,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="108" spans="2:13" ht="15">
+    <row r="108" spans="2:13" ht="14.5">
       <c r="B108" s="36">
         <v>279</v>
       </c>
@@ -47637,7 +47640,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="109" spans="2:13" ht="15">
+    <row r="109" spans="2:13" ht="14.5">
       <c r="B109" s="36">
         <v>280</v>
       </c>
@@ -47669,7 +47672,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="110" spans="2:13" ht="15">
+    <row r="110" spans="2:13" ht="14.5">
       <c r="B110" s="36">
         <v>286</v>
       </c>
@@ -47701,7 +47704,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="111" spans="2:13" ht="15">
+    <row r="111" spans="2:13" ht="14.5">
       <c r="B111" s="36">
         <v>287</v>
       </c>
@@ -47733,7 +47736,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="112" spans="2:13" ht="15">
+    <row r="112" spans="2:13" ht="14.5">
       <c r="B112" s="36">
         <v>288</v>
       </c>
@@ -47765,7 +47768,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="113" spans="2:13" ht="15">
+    <row r="113" spans="2:13" ht="14.5">
       <c r="B113" s="36">
         <v>294</v>
       </c>
@@ -47797,7 +47800,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="114" spans="2:13" ht="15">
+    <row r="114" spans="2:13" ht="14.5">
       <c r="B114" s="36">
         <v>295</v>
       </c>
@@ -47829,7 +47832,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="115" spans="2:13" ht="15">
+    <row r="115" spans="2:13" ht="14.5">
       <c r="B115" s="36">
         <v>296</v>
       </c>
@@ -47861,7 +47864,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="116" spans="2:13" ht="15">
+    <row r="116" spans="2:13" ht="14.5">
       <c r="B116" s="36">
         <v>302</v>
       </c>
@@ -47893,7 +47896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="2:13" ht="15">
+    <row r="117" spans="2:13" ht="14.5">
       <c r="B117" s="36">
         <v>303</v>
       </c>
@@ -47925,7 +47928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="2:13" ht="15">
+    <row r="118" spans="2:13" ht="14.5">
       <c r="B118" s="36">
         <v>304</v>
       </c>
@@ -47957,7 +47960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="2:13" ht="15">
+    <row r="119" spans="2:13" ht="14.5">
       <c r="B119" s="36">
         <v>310</v>
       </c>
@@ -47989,7 +47992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="2:13" ht="15">
+    <row r="120" spans="2:13" ht="14.5">
       <c r="B120" s="36">
         <v>311</v>
       </c>
@@ -48021,7 +48024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="2:13" ht="15">
+    <row r="121" spans="2:13" ht="14.5">
       <c r="B121" s="36">
         <v>312</v>
       </c>
@@ -48053,7 +48056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="2:13" ht="15">
+    <row r="122" spans="2:13" ht="14.5">
       <c r="B122" s="36">
         <v>318</v>
       </c>
@@ -48085,7 +48088,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="123" spans="2:13" ht="15">
+    <row r="123" spans="2:13" ht="14.5">
       <c r="B123" s="36">
         <v>319</v>
       </c>
@@ -48117,7 +48120,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="124" spans="2:13" ht="15">
+    <row r="124" spans="2:13" ht="14.5">
       <c r="B124" s="36">
         <v>320</v>
       </c>
@@ -48149,7 +48152,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="125" spans="2:13" ht="15">
+    <row r="125" spans="2:13" ht="14.5">
       <c r="B125" s="36">
         <v>326</v>
       </c>
@@ -48181,7 +48184,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="2:13" ht="15">
+    <row r="126" spans="2:13" ht="14.5">
       <c r="B126" s="36">
         <v>327</v>
       </c>
@@ -48213,7 +48216,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" spans="2:13" ht="15">
+    <row r="127" spans="2:13" ht="14.5">
       <c r="B127" s="36">
         <v>328</v>
       </c>
@@ -48245,7 +48248,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="2:13" ht="15">
+    <row r="128" spans="2:13" ht="14.5">
       <c r="B128" s="36">
         <v>334</v>
       </c>
@@ -48277,7 +48280,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="129" spans="2:13" ht="15">
+    <row r="129" spans="2:13" ht="14.5">
       <c r="B129" s="36">
         <v>335</v>
       </c>
@@ -48309,7 +48312,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="130" spans="2:13" ht="15">
+    <row r="130" spans="2:13" ht="14.5">
       <c r="B130" s="36">
         <v>336</v>
       </c>
@@ -48341,7 +48344,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="131" spans="2:13" ht="15">
+    <row r="131" spans="2:13" ht="14.5">
       <c r="B131" s="36">
         <v>342</v>
       </c>
@@ -48373,7 +48376,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="132" spans="2:13" ht="15">
+    <row r="132" spans="2:13" ht="14.5">
       <c r="B132" s="36">
         <v>343</v>
       </c>
@@ -48405,7 +48408,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="133" spans="2:13" ht="15">
+    <row r="133" spans="2:13" ht="14.5">
       <c r="B133" s="36">
         <v>344</v>
       </c>
@@ -48437,7 +48440,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="134" spans="2:13" ht="15">
+    <row r="134" spans="2:13" ht="14.5">
       <c r="B134" s="36">
         <v>350</v>
       </c>
@@ -48469,7 +48472,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="135" spans="2:13" ht="15">
+    <row r="135" spans="2:13" ht="14.5">
       <c r="B135" s="36">
         <v>351</v>
       </c>
@@ -48501,7 +48504,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="136" spans="2:13" ht="15">
+    <row r="136" spans="2:13" ht="14.5">
       <c r="B136" s="36">
         <v>352</v>
       </c>
@@ -48533,7 +48536,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="137" spans="2:13" ht="15">
+    <row r="137" spans="2:13" ht="14.5">
       <c r="B137" s="36">
         <v>358</v>
       </c>
@@ -48565,7 +48568,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="138" spans="2:13" ht="15">
+    <row r="138" spans="2:13" ht="14.5">
       <c r="B138" s="36">
         <v>359</v>
       </c>
@@ -48597,7 +48600,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="139" spans="2:13" ht="15">
+    <row r="139" spans="2:13" ht="14.5">
       <c r="B139" s="36">
         <v>360</v>
       </c>
@@ -48629,7 +48632,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="140" spans="2:13" ht="15">
+    <row r="140" spans="2:13" ht="14.5">
       <c r="B140" s="36">
         <v>366</v>
       </c>
@@ -48661,7 +48664,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="141" spans="2:13" ht="15">
+    <row r="141" spans="2:13" ht="14.5">
       <c r="B141" s="36">
         <v>367</v>
       </c>
@@ -48693,7 +48696,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="142" spans="2:13" ht="15">
+    <row r="142" spans="2:13" ht="14.5">
       <c r="B142" s="36">
         <v>368</v>
       </c>
@@ -48725,7 +48728,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="143" spans="2:13" ht="15">
+    <row r="143" spans="2:13" ht="14.5">
       <c r="B143" s="36">
         <v>374</v>
       </c>
@@ -48757,7 +48760,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="144" spans="2:13" ht="15">
+    <row r="144" spans="2:13" ht="14.5">
       <c r="B144" s="36">
         <v>375</v>
       </c>
@@ -48789,7 +48792,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="145" spans="2:13" ht="15">
+    <row r="145" spans="2:13" ht="14.5">
       <c r="B145" s="36">
         <v>376</v>
       </c>
@@ -48821,7 +48824,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="146" spans="2:13" ht="15">
+    <row r="146" spans="2:13" ht="14.5">
       <c r="B146" s="36">
         <v>382</v>
       </c>
@@ -48853,7 +48856,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="147" spans="2:13" ht="15">
+    <row r="147" spans="2:13" ht="14.5">
       <c r="B147" s="36">
         <v>383</v>
       </c>
@@ -48885,7 +48888,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="148" spans="2:13" ht="15">
+    <row r="148" spans="2:13" ht="14.5">
       <c r="B148" s="36">
         <v>384</v>
       </c>
@@ -48917,7 +48920,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="149" spans="2:13" ht="15">
+    <row r="149" spans="2:13" ht="14.5">
       <c r="B149" s="36">
         <v>390</v>
       </c>
@@ -48949,7 +48952,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="150" spans="2:13" ht="15">
+    <row r="150" spans="2:13" ht="14.5">
       <c r="B150" s="36">
         <v>391</v>
       </c>
@@ -48981,7 +48984,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="151" spans="2:13" ht="15">
+    <row r="151" spans="2:13" ht="14.5">
       <c r="B151" s="36">
         <v>392</v>
       </c>
@@ -49013,7 +49016,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="152" spans="2:13" ht="15">
+    <row r="152" spans="2:13" ht="14.5">
       <c r="B152" s="36">
         <v>398</v>
       </c>
@@ -49045,7 +49048,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" spans="2:13" ht="15">
+    <row r="153" spans="2:13" ht="14.5">
       <c r="B153" s="36">
         <v>399</v>
       </c>
@@ -49077,7 +49080,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="2:13" ht="15">
+    <row r="154" spans="2:13" ht="14.5">
       <c r="B154" s="36">
         <v>400</v>
       </c>
@@ -49109,7 +49112,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="2:13" ht="15">
+    <row r="155" spans="2:13" ht="14.5">
       <c r="B155" s="36">
         <v>406</v>
       </c>
@@ -49141,7 +49144,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="156" spans="2:13" ht="15">
+    <row r="156" spans="2:13" ht="14.5">
       <c r="B156" s="36">
         <v>407</v>
       </c>
@@ -49173,7 +49176,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="157" spans="2:13" ht="15">
+    <row r="157" spans="2:13" ht="14.5">
       <c r="B157" s="36">
         <v>408</v>
       </c>
@@ -49205,7 +49208,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="158" spans="2:13" ht="15">
+    <row r="158" spans="2:13" ht="14.5">
       <c r="B158" s="36">
         <v>414</v>
       </c>
@@ -49237,7 +49240,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="159" spans="2:13" ht="15">
+    <row r="159" spans="2:13" ht="14.5">
       <c r="B159" s="36">
         <v>415</v>
       </c>
@@ -49269,7 +49272,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="160" spans="2:13" ht="15">
+    <row r="160" spans="2:13" ht="14.5">
       <c r="B160" s="36">
         <v>416</v>
       </c>
@@ -49301,7 +49304,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="161" spans="2:13" ht="15">
+    <row r="161" spans="2:13" ht="14.5">
       <c r="B161" s="36">
         <v>422</v>
       </c>
@@ -49333,7 +49336,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="162" spans="2:13" ht="15">
+    <row r="162" spans="2:13" ht="14.5">
       <c r="B162" s="36">
         <v>423</v>
       </c>
@@ -49365,7 +49368,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="163" spans="2:13" ht="15">
+    <row r="163" spans="2:13" ht="14.5">
       <c r="B163" s="36">
         <v>424</v>
       </c>
@@ -49397,7 +49400,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="164" spans="2:13" ht="15">
+    <row r="164" spans="2:13" ht="14.5">
       <c r="B164" s="36">
         <v>430</v>
       </c>
@@ -49429,7 +49432,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="165" spans="2:13" ht="15">
+    <row r="165" spans="2:13" ht="14.5">
       <c r="B165" s="36">
         <v>431</v>
       </c>
@@ -49461,7 +49464,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="166" spans="2:13" ht="15">
+    <row r="166" spans="2:13" ht="14.5">
       <c r="B166" s="36">
         <v>432</v>
       </c>
@@ -49493,7 +49496,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="167" spans="2:13" ht="15">
+    <row r="167" spans="2:13" ht="14.5">
       <c r="B167" s="36">
         <v>438</v>
       </c>
@@ -49525,7 +49528,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="168" spans="2:13" ht="15">
+    <row r="168" spans="2:13" ht="14.5">
       <c r="B168" s="36">
         <v>439</v>
       </c>
@@ -49557,7 +49560,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="169" spans="2:13" ht="15">
+    <row r="169" spans="2:13" ht="14.5">
       <c r="B169" s="36">
         <v>440</v>
       </c>
@@ -49589,7 +49592,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="170" spans="2:13" ht="15">
+    <row r="170" spans="2:13" ht="14.5">
       <c r="B170" s="36">
         <v>446</v>
       </c>
@@ -49621,7 +49624,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="171" spans="2:13" ht="15">
+    <row r="171" spans="2:13" ht="14.5">
       <c r="B171" s="36">
         <v>447</v>
       </c>
@@ -49653,7 +49656,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="172" spans="2:13" ht="15">
+    <row r="172" spans="2:13" ht="14.5">
       <c r="B172" s="36">
         <v>448</v>
       </c>
@@ -49685,7 +49688,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="173" spans="2:13" ht="15">
+    <row r="173" spans="2:13" ht="14.5">
       <c r="B173" s="36">
         <v>454</v>
       </c>
@@ -49717,7 +49720,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="174" spans="2:13" ht="15">
+    <row r="174" spans="2:13" ht="14.5">
       <c r="B174" s="36">
         <v>455</v>
       </c>
@@ -49749,7 +49752,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="175" spans="2:13" ht="15">
+    <row r="175" spans="2:13" ht="14.5">
       <c r="B175" s="36">
         <v>456</v>
       </c>
@@ -49781,7 +49784,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="176" spans="2:13" ht="15">
+    <row r="176" spans="2:13" ht="14.5">
       <c r="B176" s="36">
         <v>462</v>
       </c>
@@ -49813,7 +49816,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="177" spans="2:13" ht="15">
+    <row r="177" spans="2:13" ht="14.5">
       <c r="B177" s="36">
         <v>463</v>
       </c>
@@ -49845,7 +49848,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="178" spans="2:13" ht="15">
+    <row r="178" spans="2:13" ht="14.5">
       <c r="B178" s="36">
         <v>464</v>
       </c>
@@ -49877,7 +49880,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="179" spans="2:13" ht="15">
+    <row r="179" spans="2:13" ht="14.5">
       <c r="B179" s="36">
         <v>470</v>
       </c>
@@ -49909,7 +49912,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="180" spans="2:13" ht="15">
+    <row r="180" spans="2:13" ht="14.5">
       <c r="B180" s="36">
         <v>471</v>
       </c>
@@ -49941,7 +49944,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="181" spans="2:13" ht="15">
+    <row r="181" spans="2:13" ht="14.5">
       <c r="B181" s="36">
         <v>472</v>
       </c>
@@ -49973,7 +49976,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="182" spans="2:13" ht="15">
+    <row r="182" spans="2:13" ht="14.5">
       <c r="B182" s="36">
         <v>478</v>
       </c>
@@ -50005,7 +50008,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="183" spans="2:13" ht="15">
+    <row r="183" spans="2:13" ht="14.5">
       <c r="B183" s="36">
         <v>479</v>
       </c>
@@ -50037,7 +50040,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="184" spans="2:13" ht="15">
+    <row r="184" spans="2:13" ht="14.5">
       <c r="B184" s="36">
         <v>480</v>
       </c>
@@ -50069,7 +50072,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="185" spans="2:13" ht="15">
+    <row r="185" spans="2:13" ht="14.5">
       <c r="B185" s="36">
         <v>486</v>
       </c>
@@ -50101,7 +50104,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="186" spans="2:13" ht="15">
+    <row r="186" spans="2:13" ht="14.5">
       <c r="B186" s="36">
         <v>487</v>
       </c>
@@ -50133,7 +50136,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="187" spans="2:13" ht="15">
+    <row r="187" spans="2:13" ht="14.5">
       <c r="B187" s="36">
         <v>488</v>
       </c>
@@ -50165,7 +50168,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="188" spans="2:13" ht="15">
+    <row r="188" spans="2:13" ht="14.5">
       <c r="B188" s="36">
         <v>494</v>
       </c>
@@ -50197,7 +50200,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="189" spans="2:13" ht="15">
+    <row r="189" spans="2:13" ht="14.5">
       <c r="B189" s="36">
         <v>495</v>
       </c>
@@ -50229,7 +50232,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="190" spans="2:13" ht="15">
+    <row r="190" spans="2:13" ht="14.5">
       <c r="B190" s="36">
         <v>496</v>
       </c>
@@ -50261,7 +50264,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="191" spans="2:13" ht="15">
+    <row r="191" spans="2:13" ht="14.5">
       <c r="B191" s="36">
         <v>502</v>
       </c>
@@ -50293,7 +50296,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="192" spans="2:13" ht="15">
+    <row r="192" spans="2:13" ht="14.5">
       <c r="B192" s="36">
         <v>503</v>
       </c>
@@ -50325,7 +50328,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="193" spans="2:13" ht="15">
+    <row r="193" spans="2:13" ht="14.5">
       <c r="B193" s="36">
         <v>504</v>
       </c>
@@ -50357,7 +50360,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="194" spans="2:13" ht="15">
+    <row r="194" spans="2:13" ht="14.5">
       <c r="B194" s="36">
         <v>510</v>
       </c>
@@ -50389,7 +50392,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="195" spans="2:13" ht="15">
+    <row r="195" spans="2:13" ht="14.5">
       <c r="B195" s="36">
         <v>511</v>
       </c>
@@ -50421,7 +50424,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="196" spans="2:13" ht="15">
+    <row r="196" spans="2:13" ht="14.5">
       <c r="B196" s="36">
         <v>512</v>
       </c>
@@ -50453,7 +50456,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="197" spans="2:13" ht="15">
+    <row r="197" spans="2:13" ht="14.5">
       <c r="B197" s="36">
         <v>518</v>
       </c>
@@ -50485,7 +50488,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="198" spans="2:13" ht="15">
+    <row r="198" spans="2:13" ht="14.5">
       <c r="B198" s="36">
         <v>519</v>
       </c>
@@ -50517,7 +50520,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="199" spans="2:13" ht="15">
+    <row r="199" spans="2:13" ht="14.5">
       <c r="B199" s="36">
         <v>520</v>
       </c>
@@ -50549,7 +50552,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="200" spans="2:13" ht="15">
+    <row r="200" spans="2:13" ht="14.5">
       <c r="B200" s="36">
         <v>526</v>
       </c>
@@ -50581,7 +50584,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="201" spans="2:13" ht="15">
+    <row r="201" spans="2:13" ht="14.5">
       <c r="B201" s="36">
         <v>527</v>
       </c>
@@ -50613,7 +50616,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="202" spans="2:13" ht="15">
+    <row r="202" spans="2:13" ht="14.5">
       <c r="B202" s="36">
         <v>528</v>
       </c>
@@ -50645,7 +50648,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="203" spans="2:13" ht="15">
+    <row r="203" spans="2:13" ht="14.5">
       <c r="B203" s="36">
         <v>534</v>
       </c>
@@ -50677,7 +50680,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="204" spans="2:13" ht="15">
+    <row r="204" spans="2:13" ht="14.5">
       <c r="B204" s="36">
         <v>535</v>
       </c>
@@ -50709,7 +50712,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="205" spans="2:13" ht="15">
+    <row r="205" spans="2:13" ht="14.5">
       <c r="B205" s="36">
         <v>536</v>
       </c>
@@ -50741,7 +50744,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="206" spans="2:13" ht="15">
+    <row r="206" spans="2:13" ht="14.5">
       <c r="B206" s="36">
         <v>542</v>
       </c>
@@ -50773,7 +50776,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="207" spans="2:13" ht="15">
+    <row r="207" spans="2:13" ht="14.5">
       <c r="B207" s="36">
         <v>543</v>
       </c>
@@ -50805,7 +50808,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="208" spans="2:13" ht="15">
+    <row r="208" spans="2:13" ht="14.5">
       <c r="B208" s="36">
         <v>544</v>
       </c>
@@ -50837,7 +50840,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="211" spans="2:13" ht="15">
+    <row r="211" spans="2:13" ht="14.5">
       <c r="B211" s="36"/>
       <c r="C211" s="36"/>
       <c r="D211" s="36"/>
@@ -50853,7 +50856,7 @@
       <c r="L211" s="36"/>
       <c r="M211" s="36"/>
     </row>
-    <row r="214" spans="2:13" ht="15">
+    <row r="214" spans="2:13" ht="14.5">
       <c r="E214" s="36" t="s">
         <v>170</v>
       </c>
@@ -50880,7 +50883,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="215" spans="2:13" ht="15">
+    <row r="215" spans="2:13" ht="14.5">
       <c r="E215" s="36">
         <v>0</v>
       </c>
@@ -50909,7 +50912,7 @@
         <v>0.51956327985941808</v>
       </c>
     </row>
-    <row r="216" spans="2:13" ht="15">
+    <row r="216" spans="2:13" ht="14.5">
       <c r="E216" s="36">
         <v>100</v>
       </c>
@@ -50938,7 +50941,7 @@
         <v>0.51956327985941808</v>
       </c>
     </row>
-    <row r="217" spans="2:13" ht="15">
+    <row r="217" spans="2:13" ht="14.5">
       <c r="E217" s="36">
         <v>300</v>
       </c>
@@ -50967,7 +50970,7 @@
         <v>0.51956327985941808</v>
       </c>
     </row>
-    <row r="218" spans="2:13" ht="15">
+    <row r="218" spans="2:13" ht="14.5">
       <c r="E218" s="36">
         <v>1000</v>
       </c>
@@ -50996,7 +50999,7 @@
         <v>0.51956327985941808</v>
       </c>
     </row>
-    <row r="219" spans="2:13" ht="15">
+    <row r="219" spans="2:13" ht="14.5">
       <c r="E219" s="36">
         <v>3000</v>
       </c>
@@ -51025,7 +51028,7 @@
         <v>0.51956327985457174</v>
       </c>
     </row>
-    <row r="220" spans="2:13" ht="15">
+    <row r="220" spans="2:13" ht="14.5">
       <c r="E220" s="36">
         <v>10000</v>
       </c>
@@ -51054,7 +51057,7 @@
         <v>0.51956327968146243</v>
       </c>
     </row>
-    <row r="221" spans="2:13" ht="15">
+    <row r="221" spans="2:13" ht="14.5">
       <c r="E221" s="36">
         <v>30000</v>
       </c>
@@ -51083,7 +51086,7 @@
         <v>0.51956327972199245</v>
       </c>
     </row>
-    <row r="222" spans="2:13" ht="15">
+    <row r="222" spans="2:13" ht="14.5">
       <c r="E222" s="36">
         <v>100000</v>
       </c>
@@ -51112,7 +51115,7 @@
         <v>0.51956327994016349</v>
       </c>
     </row>
-    <row r="224" spans="2:13" ht="15">
+    <row r="224" spans="2:13" ht="14.5">
       <c r="E224" s="36" t="s">
         <v>178</v>
       </c>
@@ -51139,7 +51142,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="225" spans="5:13" ht="15">
+    <row r="225" spans="5:13" ht="14.5">
       <c r="E225" s="36">
         <v>0</v>
       </c>
@@ -51168,7 +51171,7 @@
         <v>0.51956328004078434</v>
       </c>
     </row>
-    <row r="226" spans="5:13" ht="15">
+    <row r="226" spans="5:13" ht="14.5">
       <c r="E226" s="36">
         <v>100</v>
       </c>
@@ -51197,7 +51200,7 @@
         <v>0.51956328004078434</v>
       </c>
     </row>
-    <row r="227" spans="5:13" ht="15">
+    <row r="227" spans="5:13" ht="14.5">
       <c r="E227" s="36">
         <v>300</v>
       </c>
@@ -51226,7 +51229,7 @@
         <v>0.51956328004078434</v>
       </c>
     </row>
-    <row r="228" spans="5:13" ht="15">
+    <row r="228" spans="5:13" ht="14.5">
       <c r="E228" s="36">
         <v>1000</v>
       </c>
@@ -51255,7 +51258,7 @@
         <v>0.51956328004078434</v>
       </c>
     </row>
-    <row r="229" spans="5:13" ht="15">
+    <row r="229" spans="5:13" ht="14.5">
       <c r="E229" s="36">
         <v>3000</v>
       </c>
@@ -51284,7 +51287,7 @@
         <v>0.51956327962865301</v>
       </c>
     </row>
-    <row r="230" spans="5:13" ht="15">
+    <row r="230" spans="5:13" ht="14.5">
       <c r="E230" s="36">
         <v>10000</v>
       </c>
@@ -51313,7 +51316,7 @@
         <v>0.51956327979535533</v>
       </c>
     </row>
-    <row r="231" spans="5:13" ht="15">
+    <row r="231" spans="5:13" ht="14.5">
       <c r="E231" s="36">
         <v>30000</v>
       </c>
@@ -51342,7 +51345,7 @@
         <v>0.51956327981056183</v>
       </c>
     </row>
-    <row r="232" spans="5:13" ht="15">
+    <row r="232" spans="5:13" ht="14.5">
       <c r="E232" s="36">
         <v>100000</v>
       </c>
@@ -51382,7 +51385,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
